--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3853"/>
+  <dimension ref="A1:D3863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54294,7 +54294,7 @@
       </c>
     </row>
     <row r="3851" spans="1:4">
-      <c r="A3851" s="3">
+      <c r="A3851" s="2">
         <v>43056</v>
       </c>
       <c r="B3851">
@@ -54308,7 +54308,7 @@
       </c>
     </row>
     <row r="3852" spans="1:4">
-      <c r="A3852" s="3">
+      <c r="A3852" s="2">
         <v>43059</v>
       </c>
       <c r="B3852">
@@ -54322,7 +54322,7 @@
       </c>
     </row>
     <row r="3853" spans="1:4">
-      <c r="A3853" s="3">
+      <c r="A3853" s="2">
         <v>43060</v>
       </c>
       <c r="B3853">
@@ -54333,6 +54333,146 @@
       </c>
       <c r="D3853">
         <v>3410.4977</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:4">
+      <c r="A3854" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B3854">
+        <v>16.0359992980957</v>
+      </c>
+      <c r="C3854">
+        <v>4.707900047302246</v>
+      </c>
+      <c r="D3854">
+        <v>3430.4643</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:4">
+      <c r="A3855" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B3855">
+        <v>15.68519973754883</v>
+      </c>
+      <c r="C3855">
+        <v>4.7153000831604</v>
+      </c>
+      <c r="D3855">
+        <v>3351.9182</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:4">
+      <c r="A3856" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B3856">
+        <v>15.69499969482422</v>
+      </c>
+      <c r="C3856">
+        <v>4.700099945068359</v>
+      </c>
+      <c r="D3856">
+        <v>3353.8207</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:4">
+      <c r="A3857" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B3857">
+        <v>15.54769992828369</v>
+      </c>
+      <c r="C3857">
+        <v>4.703400135040283</v>
+      </c>
+      <c r="D3857">
+        <v>3322.2298</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:4">
+      <c r="A3858" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B3858">
+        <v>15.57409954071045</v>
+      </c>
+      <c r="C3858">
+        <v>4.713500022888184</v>
+      </c>
+      <c r="D3858">
+        <v>3333.657</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:4">
+      <c r="A3859" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B3859">
+        <v>15.59959983825684</v>
+      </c>
+      <c r="C3859">
+        <v>4.707900047302246</v>
+      </c>
+      <c r="D3859">
+        <v>3337.862</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:4">
+      <c r="A3860" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B3860">
+        <v>15.5044002532959</v>
+      </c>
+      <c r="C3860">
+        <v>4.701099872589111</v>
+      </c>
+      <c r="D3860">
+        <v>3317.1884</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:4">
+      <c r="A3861" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B3861">
+        <v>15.48910045623779</v>
+      </c>
+      <c r="C3861">
+        <v>4.697500228881836</v>
+      </c>
+      <c r="D3861">
+        <v>3317.6174</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:4">
+      <c r="A3862" s="3">
+        <v>43073</v>
+      </c>
+      <c r="B3862">
+        <v>15.47169971466064</v>
+      </c>
+      <c r="C3862">
+        <v>4.692500114440918</v>
+      </c>
+      <c r="D3862">
+        <v>3309.6183</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:4">
+      <c r="A3863" s="3">
+        <v>43074</v>
+      </c>
+      <c r="B3863">
+        <v>15.48740005493164</v>
+      </c>
+      <c r="C3863">
+        <v>4.689799785614014</v>
+      </c>
+      <c r="D3863">
+        <v>3303.6751</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3863"/>
+  <dimension ref="A1:D3891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54448,7 +54448,7 @@
       </c>
     </row>
     <row r="3862" spans="1:4">
-      <c r="A3862" s="3">
+      <c r="A3862" s="2">
         <v>43073</v>
       </c>
       <c r="B3862">
@@ -54462,7 +54462,7 @@
       </c>
     </row>
     <row r="3863" spans="1:4">
-      <c r="A3863" s="3">
+      <c r="A3863" s="2">
         <v>43074</v>
       </c>
       <c r="B3863">
@@ -54473,6 +54473,398 @@
       </c>
       <c r="D3863">
         <v>3303.6751</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:4">
+      <c r="A3864" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B3864">
+        <v>15.4350004196167</v>
+      </c>
+      <c r="C3864">
+        <v>4.688499927520752</v>
+      </c>
+      <c r="D3864">
+        <v>3293.9648</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:4">
+      <c r="A3865" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B3865">
+        <v>15.32390022277832</v>
+      </c>
+      <c r="C3865">
+        <v>4.692500114440918</v>
+      </c>
+      <c r="D3865">
+        <v>3272.0542</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:4">
+      <c r="A3866" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B3866">
+        <v>15.3991003036499</v>
+      </c>
+      <c r="C3866">
+        <v>4.699999809265137</v>
+      </c>
+      <c r="D3866">
+        <v>3289.9924</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:4">
+      <c r="A3867" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B3867">
+        <v>15.54259967803955</v>
+      </c>
+      <c r="C3867">
+        <v>4.72160005569458</v>
+      </c>
+      <c r="D3867">
+        <v>3322.1956</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:4">
+      <c r="A3868" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B3868">
+        <v>15.34409999847412</v>
+      </c>
+      <c r="C3868">
+        <v>4.734700202941895</v>
+      </c>
+      <c r="D3868">
+        <v>3280.8136</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:4">
+      <c r="A3869" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B3869">
+        <v>15.45460033416748</v>
+      </c>
+      <c r="C3869">
+        <v>4.740399837493896</v>
+      </c>
+      <c r="D3869">
+        <v>3303.0373</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:4">
+      <c r="A3870" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B3870">
+        <v>15.41149997711182</v>
+      </c>
+      <c r="C3870">
+        <v>4.736499786376953</v>
+      </c>
+      <c r="D3870">
+        <v>3292.4385</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:4">
+      <c r="A3871" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B3871">
+        <v>15.29599952697754</v>
+      </c>
+      <c r="C3871">
+        <v>4.724999904632568</v>
+      </c>
+      <c r="D3871">
+        <v>3266.1371</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:4">
+      <c r="A3872" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B3872">
+        <v>15.32429981231689</v>
+      </c>
+      <c r="C3872">
+        <v>4.724899768829346</v>
+      </c>
+      <c r="D3872">
+        <v>3267.9224</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:4">
+      <c r="A3873" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B3873">
+        <v>15.48040008544922</v>
+      </c>
+      <c r="C3873">
+        <v>4.729899883270264</v>
+      </c>
+      <c r="D3873">
+        <v>3296.5384</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:4">
+      <c r="A3874" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B3874">
+        <v>15.44929981231689</v>
+      </c>
+      <c r="C3874">
+        <v>4.736000061035156</v>
+      </c>
+      <c r="D3874">
+        <v>3287.6057</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:4">
+      <c r="A3875" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B3875">
+        <v>15.50380039215088</v>
+      </c>
+      <c r="C3875">
+        <v>4.743100166320801</v>
+      </c>
+      <c r="D3875">
+        <v>3300.0593</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:4">
+      <c r="A3876" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B3876">
+        <v>15.48610019683838</v>
+      </c>
+      <c r="C3876">
+        <v>4.742099761962891</v>
+      </c>
+      <c r="D3876">
+        <v>3297.063</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:4">
+      <c r="A3877" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B3877">
+        <v>15.44379997253418</v>
+      </c>
+      <c r="C3877">
+        <v>4.743800163269043</v>
+      </c>
+      <c r="D3877">
+        <v>3280.461</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:4">
+      <c r="A3878" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B3878">
+        <v>15.57590007781982</v>
+      </c>
+      <c r="C3878">
+        <v>4.751999855041504</v>
+      </c>
+      <c r="D3878">
+        <v>3306.1246</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:4">
+      <c r="A3879" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B3879">
+        <v>15.43050003051758</v>
+      </c>
+      <c r="C3879">
+        <v>4.763199806213379</v>
+      </c>
+      <c r="D3879">
+        <v>3275.7828</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:4">
+      <c r="A3880" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B3880">
+        <v>15.53929996490479</v>
+      </c>
+      <c r="C3880">
+        <v>4.763500213623047</v>
+      </c>
+      <c r="D3880">
+        <v>3296.3847</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:4">
+      <c r="A3881" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B3881">
+        <v>15.63529968261719</v>
+      </c>
+      <c r="C3881">
+        <v>4.755799770355225</v>
+      </c>
+      <c r="D3881">
+        <v>3307.1721</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:4">
+      <c r="A3882" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B3882">
+        <v>15.84959983825684</v>
+      </c>
+      <c r="C3882">
+        <v>4.747000217437744</v>
+      </c>
+      <c r="D3882">
+        <v>3348.3259</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:4">
+      <c r="A3883" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B3883">
+        <v>15.93080043792725</v>
+      </c>
+      <c r="C3883">
+        <v>4.74590015411377</v>
+      </c>
+      <c r="D3883">
+        <v>3369.1084</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:4">
+      <c r="A3884" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B3884">
+        <v>15.98610019683838</v>
+      </c>
+      <c r="C3884">
+        <v>4.754799842834473</v>
+      </c>
+      <c r="D3884">
+        <v>3385.7102</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:4">
+      <c r="A3885" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B3885">
+        <v>16.01849937438965</v>
+      </c>
+      <c r="C3885">
+        <v>4.739099979400635</v>
+      </c>
+      <c r="D3885">
+        <v>3391.7501</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:4">
+      <c r="A3886" s="3">
+        <v>43108</v>
+      </c>
+      <c r="B3886">
+        <v>16.08699989318848</v>
+      </c>
+      <c r="C3886">
+        <v>4.729499816894531</v>
+      </c>
+      <c r="D3886">
+        <v>3409.4795</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:4">
+      <c r="A3887" s="3">
+        <v>43109</v>
+      </c>
+      <c r="B3887">
+        <v>16.1068000793457</v>
+      </c>
+      <c r="C3887">
+        <v>4.724299907684326</v>
+      </c>
+      <c r="D3887">
+        <v>3413.8996</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:4">
+      <c r="A3888" s="3">
+        <v>43110</v>
+      </c>
+      <c r="B3888">
+        <v>16.16699981689453</v>
+      </c>
+      <c r="C3888">
+        <v>4.74429988861084</v>
+      </c>
+      <c r="D3888">
+        <v>3421.8343</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:4">
+      <c r="A3889" s="3">
+        <v>43111</v>
+      </c>
+      <c r="B3889">
+        <v>16.19449996948242</v>
+      </c>
+      <c r="C3889">
+        <v>4.761199951171875</v>
+      </c>
+      <c r="D3889">
+        <v>3425.3449</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:4">
+      <c r="A3890" s="3">
+        <v>43112</v>
+      </c>
+      <c r="B3890">
+        <v>16.21520042419434</v>
+      </c>
+      <c r="C3890">
+        <v>4.758500099182129</v>
+      </c>
+      <c r="D3890">
+        <v>3428.9407</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:4">
+      <c r="A3891" s="3">
+        <v>43115</v>
+      </c>
+      <c r="B3891">
+        <v>16.14649963378906</v>
+      </c>
+      <c r="C3891">
+        <v>4.774499893188477</v>
+      </c>
+      <c r="D3891">
+        <v>3410.4882</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3891"/>
+  <dimension ref="A1:D3921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -54784,7 +54784,7 @@
       </c>
     </row>
     <row r="3886" spans="1:4">
-      <c r="A3886" s="3">
+      <c r="A3886" s="2">
         <v>43108</v>
       </c>
       <c r="B3886">
@@ -54798,7 +54798,7 @@
       </c>
     </row>
     <row r="3887" spans="1:4">
-      <c r="A3887" s="3">
+      <c r="A3887" s="2">
         <v>43109</v>
       </c>
       <c r="B3887">
@@ -54812,7 +54812,7 @@
       </c>
     </row>
     <row r="3888" spans="1:4">
-      <c r="A3888" s="3">
+      <c r="A3888" s="2">
         <v>43110</v>
       </c>
       <c r="B3888">
@@ -54826,7 +54826,7 @@
       </c>
     </row>
     <row r="3889" spans="1:4">
-      <c r="A3889" s="3">
+      <c r="A3889" s="2">
         <v>43111</v>
       </c>
       <c r="B3889">
@@ -54840,7 +54840,7 @@
       </c>
     </row>
     <row r="3890" spans="1:4">
-      <c r="A3890" s="3">
+      <c r="A3890" s="2">
         <v>43112</v>
       </c>
       <c r="B3890">
@@ -54854,7 +54854,7 @@
       </c>
     </row>
     <row r="3891" spans="1:4">
-      <c r="A3891" s="3">
+      <c r="A3891" s="2">
         <v>43115</v>
       </c>
       <c r="B3891">
@@ -54865,6 +54865,426 @@
       </c>
       <c r="D3891">
         <v>3410.4882</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:4">
+      <c r="A3892" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B3892">
+        <v>16.2726993560791</v>
+      </c>
+      <c r="C3892">
+        <v>4.774799823760986</v>
+      </c>
+      <c r="D3892">
+        <v>3436.594</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:4">
+      <c r="A3893" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B3893">
+        <v>16.32710075378418</v>
+      </c>
+      <c r="C3893">
+        <v>4.783899784088135</v>
+      </c>
+      <c r="D3893">
+        <v>3444.6713</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:4">
+      <c r="A3894" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B3894">
+        <v>16.52770042419434</v>
+      </c>
+      <c r="C3894">
+        <v>4.797999858856201</v>
+      </c>
+      <c r="D3894">
+        <v>3474.754</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:4">
+      <c r="A3895" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B3895">
+        <v>16.60120010375977</v>
+      </c>
+      <c r="C3895">
+        <v>4.79610013961792</v>
+      </c>
+      <c r="D3895">
+        <v>3487.864</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:4">
+      <c r="A3896" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B3896">
+        <v>16.64730072021484</v>
+      </c>
+      <c r="C3896">
+        <v>4.793499946594238</v>
+      </c>
+      <c r="D3896">
+        <v>3501.3622</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:4">
+      <c r="A3897" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B3897">
+        <v>16.93810081481934</v>
+      </c>
+      <c r="C3897">
+        <v>4.790200233459473</v>
+      </c>
+      <c r="D3897">
+        <v>3546.5048</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:4">
+      <c r="A3898" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B3898">
+        <v>16.96640014648438</v>
+      </c>
+      <c r="C3898">
+        <v>4.787099838256836</v>
+      </c>
+      <c r="D3898">
+        <v>3559.4653</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:4">
+      <c r="A3899" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B3899">
+        <v>16.89139938354492</v>
+      </c>
+      <c r="C3899">
+        <v>4.784999847412109</v>
+      </c>
+      <c r="D3899">
+        <v>3548.307</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:4">
+      <c r="A3900" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B3900">
+        <v>16.95059967041016</v>
+      </c>
+      <c r="C3900">
+        <v>4.782999992370605</v>
+      </c>
+      <c r="D3900">
+        <v>3558.1288</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:4">
+      <c r="A3901" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B3901">
+        <v>16.77860069274902</v>
+      </c>
+      <c r="C3901">
+        <v>4.782000064849854</v>
+      </c>
+      <c r="D3901">
+        <v>3523.0007</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:4">
+      <c r="A3902" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B3902">
+        <v>16.59779930114746</v>
+      </c>
+      <c r="C3902">
+        <v>4.784200191497803</v>
+      </c>
+      <c r="D3902">
+        <v>3488.009</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:4">
+      <c r="A3903" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B3903">
+        <v>16.61470031738281</v>
+      </c>
+      <c r="C3903">
+        <v>4.774400234222412</v>
+      </c>
+      <c r="D3903">
+        <v>3480.8334</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:4">
+      <c r="A3904" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B3904">
+        <v>16.50309944152832</v>
+      </c>
+      <c r="C3904">
+        <v>4.76669979095459</v>
+      </c>
+      <c r="D3904">
+        <v>3446.9799</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:4">
+      <c r="A3905" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B3905">
+        <v>16.56879997253418</v>
+      </c>
+      <c r="C3905">
+        <v>4.763500213623047</v>
+      </c>
+      <c r="D3905">
+        <v>3462.0808</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:4">
+      <c r="A3906" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B3906">
+        <v>16.72940063476562</v>
+      </c>
+      <c r="C3906">
+        <v>4.768899917602539</v>
+      </c>
+      <c r="D3906">
+        <v>3487.497</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:4">
+      <c r="A3907" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B3907">
+        <v>16.18000030517578</v>
+      </c>
+      <c r="C3907">
+        <v>4.743599891662598</v>
+      </c>
+      <c r="D3907">
+        <v>3370.652</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:4">
+      <c r="A3908" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B3908">
+        <v>15.82769966125488</v>
+      </c>
+      <c r="C3908">
+        <v>4.736599922180176</v>
+      </c>
+      <c r="D3908">
+        <v>3309.2598</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:4">
+      <c r="A3909" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B3909">
+        <v>15.55490016937256</v>
+      </c>
+      <c r="C3909">
+        <v>4.736599922180176</v>
+      </c>
+      <c r="D3909">
+        <v>3262.0504</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:4">
+      <c r="A3910" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B3910">
+        <v>14.92850017547607</v>
+      </c>
+      <c r="C3910">
+        <v>4.735499858856201</v>
+      </c>
+      <c r="D3910">
+        <v>3129.8508</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:4">
+      <c r="A3911" s="3">
+        <v>43143</v>
+      </c>
+      <c r="B3911">
+        <v>15.0088996887207</v>
+      </c>
+      <c r="C3911">
+        <v>4.728899955749512</v>
+      </c>
+      <c r="D3911">
+        <v>3154.1254</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:4">
+      <c r="A3912" s="3">
+        <v>43144</v>
+      </c>
+      <c r="B3912">
+        <v>15.15340042114258</v>
+      </c>
+      <c r="C3912">
+        <v>4.726600170135498</v>
+      </c>
+      <c r="D3912">
+        <v>3184.9587</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:4">
+      <c r="A3913" s="3">
+        <v>43145</v>
+      </c>
+      <c r="B3913">
+        <v>15.20450019836426</v>
+      </c>
+      <c r="C3913">
+        <v>4.723499774932861</v>
+      </c>
+      <c r="D3913">
+        <v>3199.1589</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:4">
+      <c r="A3914" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B3914">
+        <v>15.54819965362549</v>
+      </c>
+      <c r="C3914">
+        <v>4.72629976272583</v>
+      </c>
+      <c r="D3914">
+        <v>3268.5589</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:4">
+      <c r="A3915" s="3">
+        <v>43154</v>
+      </c>
+      <c r="B3915">
+        <v>15.64630031585693</v>
+      </c>
+      <c r="C3915">
+        <v>4.721000194549561</v>
+      </c>
+      <c r="D3915">
+        <v>3289.0241</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:4">
+      <c r="A3916" s="3">
+        <v>43157</v>
+      </c>
+      <c r="B3916">
+        <v>15.80550003051758</v>
+      </c>
+      <c r="C3916">
+        <v>4.686299800872803</v>
+      </c>
+      <c r="D3916">
+        <v>3329.5737</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:4">
+      <c r="A3917" s="3">
+        <v>43158</v>
+      </c>
+      <c r="B3917">
+        <v>15.60130023956299</v>
+      </c>
+      <c r="C3917">
+        <v>4.669700145721436</v>
+      </c>
+      <c r="D3917">
+        <v>3292.0679</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:4">
+      <c r="A3918" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B3918">
+        <v>15.56789970397949</v>
+      </c>
+      <c r="C3918">
+        <v>4.659299850463867</v>
+      </c>
+      <c r="D3918">
+        <v>3259.408</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:4">
+      <c r="A3919" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B3919">
+        <v>15.62339973449707</v>
+      </c>
+      <c r="C3919">
+        <v>4.657800197601318</v>
+      </c>
+      <c r="D3919">
+        <v>3273.7549</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:4">
+      <c r="A3920" s="3">
+        <v>43161</v>
+      </c>
+      <c r="B3920">
+        <v>15.52470016479492</v>
+      </c>
+      <c r="C3920">
+        <v>4.66450023651123</v>
+      </c>
+      <c r="D3920">
+        <v>3254.5283</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:4">
+      <c r="A3921" s="3">
+        <v>43164</v>
+      </c>
+      <c r="B3921">
+        <v>15.53719997406006</v>
+      </c>
+      <c r="C3921">
+        <v>4.674399852752686</v>
+      </c>
+      <c r="D3921">
+        <v>3256.9263</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3921"/>
+  <dimension ref="A1:D3926"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -55134,7 +55134,7 @@
       </c>
     </row>
     <row r="3911" spans="1:4">
-      <c r="A3911" s="3">
+      <c r="A3911" s="2">
         <v>43143</v>
       </c>
       <c r="B3911">
@@ -55148,7 +55148,7 @@
       </c>
     </row>
     <row r="3912" spans="1:4">
-      <c r="A3912" s="3">
+      <c r="A3912" s="2">
         <v>43144</v>
       </c>
       <c r="B3912">
@@ -55162,7 +55162,7 @@
       </c>
     </row>
     <row r="3913" spans="1:4">
-      <c r="A3913" s="3">
+      <c r="A3913" s="2">
         <v>43145</v>
       </c>
       <c r="B3913">
@@ -55176,7 +55176,7 @@
       </c>
     </row>
     <row r="3914" spans="1:4">
-      <c r="A3914" s="3">
+      <c r="A3914" s="2">
         <v>43153</v>
       </c>
       <c r="B3914">
@@ -55190,7 +55190,7 @@
       </c>
     </row>
     <row r="3915" spans="1:4">
-      <c r="A3915" s="3">
+      <c r="A3915" s="2">
         <v>43154</v>
       </c>
       <c r="B3915">
@@ -55204,7 +55204,7 @@
       </c>
     </row>
     <row r="3916" spans="1:4">
-      <c r="A3916" s="3">
+      <c r="A3916" s="2">
         <v>43157</v>
       </c>
       <c r="B3916">
@@ -55218,7 +55218,7 @@
       </c>
     </row>
     <row r="3917" spans="1:4">
-      <c r="A3917" s="3">
+      <c r="A3917" s="2">
         <v>43158</v>
       </c>
       <c r="B3917">
@@ -55232,7 +55232,7 @@
       </c>
     </row>
     <row r="3918" spans="1:4">
-      <c r="A3918" s="3">
+      <c r="A3918" s="2">
         <v>43159</v>
       </c>
       <c r="B3918">
@@ -55246,7 +55246,7 @@
       </c>
     </row>
     <row r="3919" spans="1:4">
-      <c r="A3919" s="3">
+      <c r="A3919" s="2">
         <v>43160</v>
       </c>
       <c r="B3919">
@@ -55260,7 +55260,7 @@
       </c>
     </row>
     <row r="3920" spans="1:4">
-      <c r="A3920" s="3">
+      <c r="A3920" s="2">
         <v>43161</v>
       </c>
       <c r="B3920">
@@ -55274,7 +55274,7 @@
       </c>
     </row>
     <row r="3921" spans="1:4">
-      <c r="A3921" s="3">
+      <c r="A3921" s="2">
         <v>43164</v>
       </c>
       <c r="B3921">
@@ -55285,6 +55285,76 @@
       </c>
       <c r="D3921">
         <v>3256.9263</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:4">
+      <c r="A3922" s="3">
+        <v>43165</v>
+      </c>
+      <c r="B3922">
+        <v>15.67980003356934</v>
+      </c>
+      <c r="C3922">
+        <v>4.672800064086914</v>
+      </c>
+      <c r="D3922">
+        <v>3289.6419</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:4">
+      <c r="A3923" s="3">
+        <v>43166</v>
+      </c>
+      <c r="B3923">
+        <v>15.61989974975586</v>
+      </c>
+      <c r="C3923">
+        <v>4.66540002822876</v>
+      </c>
+      <c r="D3923">
+        <v>3271.6683</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:4">
+      <c r="A3924" s="3">
+        <v>43167</v>
+      </c>
+      <c r="B3924">
+        <v>15.68509960174561</v>
+      </c>
+      <c r="C3924">
+        <v>4.661200046539307</v>
+      </c>
+      <c r="D3924">
+        <v>3288.4055</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:4">
+      <c r="A3925" s="3">
+        <v>43168</v>
+      </c>
+      <c r="B3925">
+        <v>15.77089977264404</v>
+      </c>
+      <c r="C3925">
+        <v>4.658899784088135</v>
+      </c>
+      <c r="D3925">
+        <v>3307.1656</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:4">
+      <c r="A3926" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B3926">
+        <v>15.84739971160889</v>
+      </c>
+      <c r="C3926">
+        <v>4.655799865722656</v>
+      </c>
+      <c r="D3926">
+        <v>3326.6992</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4458"/>
+  <dimension ref="A1:D4490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61299,7 +61299,7 @@
       </c>
     </row>
     <row r="4454" spans="1:4">
-      <c r="A4454" s="3">
+      <c r="A4454" s="2">
         <v>43244</v>
       </c>
       <c r="B4454">
@@ -61313,7 +61313,7 @@
       </c>
     </row>
     <row r="4455" spans="1:4">
-      <c r="A4455" s="3">
+      <c r="A4455" s="2">
         <v>43245</v>
       </c>
       <c r="B4455">
@@ -61327,7 +61327,7 @@
       </c>
     </row>
     <row r="4456" spans="1:4">
-      <c r="A4456" s="3">
+      <c r="A4456" s="2">
         <v>43248</v>
       </c>
       <c r="B4456">
@@ -61341,7 +61341,7 @@
       </c>
     </row>
     <row r="4457" spans="1:4">
-      <c r="A4457" s="3">
+      <c r="A4457" s="2">
         <v>43249</v>
       </c>
       <c r="B4457">
@@ -61355,7 +61355,7 @@
       </c>
     </row>
     <row r="4458" spans="1:4">
-      <c r="A4458" s="3">
+      <c r="A4458" s="2">
         <v>43250</v>
       </c>
       <c r="B4458">
@@ -61366,6 +61366,454 @@
       </c>
       <c r="D4458">
         <v>4135.8552</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:4">
+      <c r="A4459" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B4459">
+        <v>17.33659934997559</v>
+      </c>
+      <c r="C4459">
+        <v>4.395299911499023</v>
+      </c>
+      <c r="D4459">
+        <v>4210.9383</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:4">
+      <c r="A4460" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B4460">
+        <v>17.19219970703125</v>
+      </c>
+      <c r="C4460">
+        <v>4.403900146484375</v>
+      </c>
+      <c r="D4460">
+        <v>4170.235</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:4">
+      <c r="A4461" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B4461">
+        <v>17.26449966430664</v>
+      </c>
+      <c r="C4461">
+        <v>4.423299789428711</v>
+      </c>
+      <c r="D4461">
+        <v>4185.3093</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:4">
+      <c r="A4462" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B4462">
+        <v>17.44759941101074</v>
+      </c>
+      <c r="C4462">
+        <v>4.434899806976318</v>
+      </c>
+      <c r="D4462">
+        <v>4240.9803</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:4">
+      <c r="A4463" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B4463">
+        <v>17.44869995117188</v>
+      </c>
+      <c r="C4463">
+        <v>4.441400051116943</v>
+      </c>
+      <c r="D4463">
+        <v>4240.5291</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:4">
+      <c r="A4464" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B4464">
+        <v>17.39389991760254</v>
+      </c>
+      <c r="C4464">
+        <v>4.447999954223633</v>
+      </c>
+      <c r="D4464">
+        <v>4225.5526</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:4">
+      <c r="A4465" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B4465">
+        <v>17.21109962463379</v>
+      </c>
+      <c r="C4465">
+        <v>4.435299873352051</v>
+      </c>
+      <c r="D4465">
+        <v>4176.1768</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:4">
+      <c r="A4466" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B4466">
+        <v>17.14159965515137</v>
+      </c>
+      <c r="C4466">
+        <v>4.44320011138916</v>
+      </c>
+      <c r="D4466">
+        <v>4160.5071</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:4">
+      <c r="A4467" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B4467">
+        <v>17.31649971008301</v>
+      </c>
+      <c r="C4467">
+        <v>4.460100173950195</v>
+      </c>
+      <c r="D4467">
+        <v>4202.9103</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:4">
+      <c r="A4468" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B4468">
+        <v>17.13260078430176</v>
+      </c>
+      <c r="C4468">
+        <v>4.452300071716309</v>
+      </c>
+      <c r="D4468">
+        <v>4150.5212</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:4">
+      <c r="A4469" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B4469">
+        <v>17.07850074768066</v>
+      </c>
+      <c r="C4469">
+        <v>4.440299987792969</v>
+      </c>
+      <c r="D4469">
+        <v>4134.0117</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:4">
+      <c r="A4470" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B4470">
+        <v>16.91169929504395</v>
+      </c>
+      <c r="C4470">
+        <v>4.42609977722168</v>
+      </c>
+      <c r="D4470">
+        <v>4085.3034</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:4">
+      <c r="A4471" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B4471">
+        <v>16.18869972229004</v>
+      </c>
+      <c r="C4471">
+        <v>4.404500007629395</v>
+      </c>
+      <c r="D4471">
+        <v>3882.9806</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:4">
+      <c r="A4472" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B4472">
+        <v>16.2628002166748</v>
+      </c>
+      <c r="C4472">
+        <v>4.415900230407715</v>
+      </c>
+      <c r="D4472">
+        <v>3910.804</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:4">
+      <c r="A4473" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B4473">
+        <v>16.00270080566406</v>
+      </c>
+      <c r="C4473">
+        <v>4.402400016784668</v>
+      </c>
+      <c r="D4473">
+        <v>3845.9319</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:4">
+      <c r="A4474" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B4474">
+        <v>16.11680030822754</v>
+      </c>
+      <c r="C4474">
+        <v>4.394299983978271</v>
+      </c>
+      <c r="D4474">
+        <v>3882.4092</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:4">
+      <c r="A4475" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B4475">
+        <v>15.9621000289917</v>
+      </c>
+      <c r="C4475">
+        <v>4.39739990234375</v>
+      </c>
+      <c r="D4475">
+        <v>3846.6151</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:4">
+      <c r="A4476" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B4476">
+        <v>15.93490028381348</v>
+      </c>
+      <c r="C4476">
+        <v>4.394899845123291</v>
+      </c>
+      <c r="D4476">
+        <v>3846.6861</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:4">
+      <c r="A4477" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B4477">
+        <v>15.7435998916626</v>
+      </c>
+      <c r="C4477">
+        <v>4.388199806213379</v>
+      </c>
+      <c r="D4477">
+        <v>3794.4735</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:4">
+      <c r="A4478" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B4478">
+        <v>15.57450008392334</v>
+      </c>
+      <c r="C4478">
+        <v>4.361700057983398</v>
+      </c>
+      <c r="D4478">
+        <v>3755.1617</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:4">
+      <c r="A4479" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B4479">
+        <v>15.99040031433105</v>
+      </c>
+      <c r="C4479">
+        <v>4.316999912261963</v>
+      </c>
+      <c r="D4479">
+        <v>3860.3372</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:4">
+      <c r="A4480" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B4480">
+        <v>15.62230014801025</v>
+      </c>
+      <c r="C4480">
+        <v>4.2947998046875</v>
+      </c>
+      <c r="D4480">
+        <v>3778.0198</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:4">
+      <c r="A4481" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B4481">
+        <v>15.714599609375</v>
+      </c>
+      <c r="C4481">
+        <v>4.282599925994873</v>
+      </c>
+      <c r="D4481">
+        <v>3802.338</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:4">
+      <c r="A4482" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B4482">
+        <v>15.53530025482178</v>
+      </c>
+      <c r="C4482">
+        <v>4.280300140380859</v>
+      </c>
+      <c r="D4482">
+        <v>3744.8972</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:4">
+      <c r="A4483" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B4483">
+        <v>15.34130001068115</v>
+      </c>
+      <c r="C4483">
+        <v>4.257999897003174</v>
+      </c>
+      <c r="D4483">
+        <v>3685.2029</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:4">
+      <c r="A4484" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B4484">
+        <v>15.41469955444336</v>
+      </c>
+      <c r="C4484">
+        <v>4.257299900054932</v>
+      </c>
+      <c r="D4484">
+        <v>3706.1205</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:4">
+      <c r="A4485" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B4485">
+        <v>15.81649971008301</v>
+      </c>
+      <c r="C4485">
+        <v>4.262800216674805</v>
+      </c>
+      <c r="D4485">
+        <v>3798.1284</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:4">
+      <c r="A4486" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B4486">
+        <v>15.89589977264404</v>
+      </c>
+      <c r="C4486">
+        <v>4.267000198364258</v>
+      </c>
+      <c r="D4486">
+        <v>3817.6416</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:4">
+      <c r="A4487" s="3">
+        <v>43292</v>
+      </c>
+      <c r="B4487">
+        <v>15.61050033569336</v>
+      </c>
+      <c r="C4487">
+        <v>4.254799842834473</v>
+      </c>
+      <c r="D4487">
+        <v>3744.9268</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:4">
+      <c r="A4488" s="3">
+        <v>43293</v>
+      </c>
+      <c r="B4488">
+        <v>15.97700023651123</v>
+      </c>
+      <c r="C4488">
+        <v>4.253099918365479</v>
+      </c>
+      <c r="D4488">
+        <v>3836.9795</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:4">
+      <c r="A4489" s="3">
+        <v>43294</v>
+      </c>
+      <c r="B4489">
+        <v>15.96580028533936</v>
+      </c>
+      <c r="C4489">
+        <v>4.234899997711182</v>
+      </c>
+      <c r="D4489">
+        <v>3853.3783</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:4">
+      <c r="A4490" s="3">
+        <v>43297</v>
+      </c>
+      <c r="B4490">
+        <v>15.87800025939941</v>
+      </c>
+      <c r="C4490">
+        <v>4.218900203704834</v>
+      </c>
+      <c r="D4490">
+        <v>3842.6481</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4490"/>
+  <dimension ref="A1:D4556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61761,7 +61761,7 @@
       </c>
     </row>
     <row r="4487" spans="1:4">
-      <c r="A4487" s="3">
+      <c r="A4487" s="2">
         <v>43292</v>
       </c>
       <c r="B4487">
@@ -61775,7 +61775,7 @@
       </c>
     </row>
     <row r="4488" spans="1:4">
-      <c r="A4488" s="3">
+      <c r="A4488" s="2">
         <v>43293</v>
       </c>
       <c r="B4488">
@@ -61789,7 +61789,7 @@
       </c>
     </row>
     <row r="4489" spans="1:4">
-      <c r="A4489" s="3">
+      <c r="A4489" s="2">
         <v>43294</v>
       </c>
       <c r="B4489">
@@ -61803,7 +61803,7 @@
       </c>
     </row>
     <row r="4490" spans="1:4">
-      <c r="A4490" s="3">
+      <c r="A4490" s="2">
         <v>43297</v>
       </c>
       <c r="B4490">
@@ -61814,6 +61814,927 @@
       </c>
       <c r="D4490">
         <v>3842.6481</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:4">
+      <c r="A4491" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B4491">
+        <v>15.78520011901855</v>
+      </c>
+      <c r="C4491">
+        <v>4.218200206756592</v>
+      </c>
+      <c r="D4491">
+        <v>3834.3343</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:4">
+      <c r="A4492" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B4492">
+        <v>15.70860004425049</v>
+      </c>
+      <c r="C4492">
+        <v>4.205999851226807</v>
+      </c>
+      <c r="D4492">
+        <v>3813.5347</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:4">
+      <c r="A4493" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B4493">
+        <v>15.6117000579834</v>
+      </c>
+      <c r="C4493">
+        <v>4.17710018157959</v>
+      </c>
+      <c r="D4493">
+        <v>3792.2334</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:4">
+      <c r="A4494" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B4494">
+        <v>15.91269969940186</v>
+      </c>
+      <c r="C4494">
+        <v>4.178500175476074</v>
+      </c>
+      <c r="D4494">
+        <v>3851.2965</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:4">
+      <c r="A4495" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B4495">
+        <v>16.05229949951172</v>
+      </c>
+      <c r="C4495">
+        <v>4.174900054931641</v>
+      </c>
+      <c r="D4495">
+        <v>3883.1899</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:4">
+      <c r="A4496" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B4496">
+        <v>16.29389953613281</v>
+      </c>
+      <c r="C4496">
+        <v>4.195799827575684</v>
+      </c>
+      <c r="D4496">
+        <v>3945.4412</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:4">
+      <c r="A4497" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B4497">
+        <v>16.26980018615723</v>
+      </c>
+      <c r="D4497">
+        <v>3945.9419</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:4">
+      <c r="A4498" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B4498">
+        <v>16.13479995727539</v>
+      </c>
+      <c r="C4498">
+        <v>4.181000232696533</v>
+      </c>
+      <c r="D4498">
+        <v>3916.2287</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:4">
+      <c r="A4499" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B4499">
+        <v>16.06970024108887</v>
+      </c>
+      <c r="C4499">
+        <v>4.164199829101562</v>
+      </c>
+      <c r="D4499">
+        <v>3898.2481</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:4">
+      <c r="A4500" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B4500">
+        <v>16.02960014343262</v>
+      </c>
+      <c r="C4500">
+        <v>4.150100231170654</v>
+      </c>
+      <c r="D4500">
+        <v>3869.4643</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:4">
+      <c r="A4501" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B4501">
+        <v>16.01740074157715</v>
+      </c>
+      <c r="C4501">
+        <v>4.116700172424316</v>
+      </c>
+      <c r="D4501">
+        <v>3872.0117</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:4">
+      <c r="A4502" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B4502">
+        <v>15.72070026397705</v>
+      </c>
+      <c r="C4502">
+        <v>4.097799777984619</v>
+      </c>
+      <c r="D4502">
+        <v>3803.2568</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:4">
+      <c r="A4503" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B4503">
+        <v>15.37409973144531</v>
+      </c>
+      <c r="C4503">
+        <v>4.083399772644043</v>
+      </c>
+      <c r="D4503">
+        <v>3718.2967</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:4">
+      <c r="A4504" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B4504">
+        <v>15.18910026550293</v>
+      </c>
+      <c r="C4504">
+        <v>4.059599876403809</v>
+      </c>
+      <c r="D4504">
+        <v>3665.3598</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:4">
+      <c r="A4505" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B4505">
+        <v>14.97239971160889</v>
+      </c>
+      <c r="C4505">
+        <v>4.037399768829346</v>
+      </c>
+      <c r="D4505">
+        <v>3605.5606</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:4">
+      <c r="A4506" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B4506">
+        <v>15.37230014801025</v>
+      </c>
+      <c r="C4506">
+        <v>4.021599769592285</v>
+      </c>
+      <c r="D4506">
+        <v>3704.8186</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:4">
+      <c r="A4507" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B4507">
+        <v>15.13549995422363</v>
+      </c>
+      <c r="C4507">
+        <v>4.047100067138672</v>
+      </c>
+      <c r="D4507">
+        <v>3647.8478</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:4">
+      <c r="A4508" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B4508">
+        <v>15.45040035247803</v>
+      </c>
+      <c r="C4508">
+        <v>4.095099925994873</v>
+      </c>
+      <c r="D4508">
+        <v>3733.9886</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:4">
+      <c r="A4509" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B4509">
+        <v>15.46840000152588</v>
+      </c>
+      <c r="C4509">
+        <v>4.112599849700928</v>
+      </c>
+      <c r="D4509">
+        <v>3749.0849</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:4">
+      <c r="A4510" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B4510">
+        <v>15.43089962005615</v>
+      </c>
+      <c r="C4510">
+        <v>4.153600215911865</v>
+      </c>
+      <c r="D4510">
+        <v>3748.4225</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:4">
+      <c r="A4511" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B4511">
+        <v>15.38539981842041</v>
+      </c>
+      <c r="C4511">
+        <v>4.145199775695801</v>
+      </c>
+      <c r="D4511">
+        <v>3734.0611</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:4">
+      <c r="A4512" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B4512">
+        <v>15.0560998916626</v>
+      </c>
+      <c r="C4512">
+        <v>4.148799896240234</v>
+      </c>
+      <c r="D4512">
+        <v>3653.8096</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:4">
+      <c r="A4513" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B4513">
+        <v>14.93019962310791</v>
+      </c>
+      <c r="C4513">
+        <v>4.168499946594238</v>
+      </c>
+      <c r="D4513">
+        <v>3626.4409</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:4">
+      <c r="A4514" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B4514">
+        <v>14.70359992980957</v>
+      </c>
+      <c r="C4514">
+        <v>4.214700222015381</v>
+      </c>
+      <c r="D4514">
+        <v>3569.4824</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:4">
+      <c r="A4515" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B4515">
+        <v>14.83850002288818</v>
+      </c>
+      <c r="C4515">
+        <v>4.228700160980225</v>
+      </c>
+      <c r="D4515">
+        <v>3598.0727</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:4">
+      <c r="A4516" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B4516">
+        <v>15.00860023498535</v>
+      </c>
+      <c r="C4516">
+        <v>4.246500015258789</v>
+      </c>
+      <c r="D4516">
+        <v>3650.4035</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:4">
+      <c r="A4517" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B4517">
+        <v>14.81439971923828</v>
+      </c>
+      <c r="C4517">
+        <v>4.229700088500977</v>
+      </c>
+      <c r="D4517">
+        <v>3620.1858</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:4">
+      <c r="A4518" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B4518">
+        <v>14.85000038146973</v>
+      </c>
+      <c r="C4518">
+        <v>4.204400062561035</v>
+      </c>
+      <c r="D4518">
+        <v>3638.2843</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:4">
+      <c r="A4519" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B4519">
+        <v>14.87530040740967</v>
+      </c>
+      <c r="C4519">
+        <v>4.200099945068359</v>
+      </c>
+      <c r="D4519">
+        <v>3638.9517</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:4">
+      <c r="A4520" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B4520">
+        <v>15.11660003662109</v>
+      </c>
+      <c r="C4520">
+        <v>4.210800170898438</v>
+      </c>
+      <c r="D4520">
+        <v>3720.6677</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:4">
+      <c r="A4521" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B4521">
+        <v>15.07639980316162</v>
+      </c>
+      <c r="C4521">
+        <v>4.214600086212158</v>
+      </c>
+      <c r="D4521">
+        <v>3720.017</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:4">
+      <c r="A4522" s="2">
+        <v>43341</v>
+      </c>
+      <c r="B4522">
+        <v>14.94729995727539</v>
+      </c>
+      <c r="C4522">
+        <v>4.214200019836426</v>
+      </c>
+      <c r="D4522">
+        <v>3701.5104</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:4">
+      <c r="A4523" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B4523">
+        <v>14.7564001083374</v>
+      </c>
+      <c r="C4523">
+        <v>4.198699951171875</v>
+      </c>
+      <c r="D4523">
+        <v>3653.3684</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:4">
+      <c r="A4524" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B4524">
+        <v>14.61390018463135</v>
+      </c>
+      <c r="C4524">
+        <v>4.188300132751465</v>
+      </c>
+      <c r="D4524">
+        <v>3625.9119</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:4">
+      <c r="A4525" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B4525">
+        <v>14.59809970855713</v>
+      </c>
+      <c r="C4525">
+        <v>4.203800201416016</v>
+      </c>
+      <c r="D4525">
+        <v>3619.7099</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:4">
+      <c r="A4526" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B4526">
+        <v>14.76169967651367</v>
+      </c>
+      <c r="C4526">
+        <v>4.211900234222412</v>
+      </c>
+      <c r="D4526">
+        <v>3662.6577</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:4">
+      <c r="A4527" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B4527">
+        <v>14.50780010223389</v>
+      </c>
+      <c r="C4527">
+        <v>4.212100028991699</v>
+      </c>
+      <c r="D4527">
+        <v>3599.9832</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:4">
+      <c r="A4528" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B4528">
+        <v>14.42490005493164</v>
+      </c>
+      <c r="C4528">
+        <v>4.214099884033203</v>
+      </c>
+      <c r="D4528">
+        <v>3575.1071</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:4">
+      <c r="A4529" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B4529">
+        <v>14.46879959106445</v>
+      </c>
+      <c r="C4529">
+        <v>4.219500064849854</v>
+      </c>
+      <c r="D4529">
+        <v>3586.9309</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:4">
+      <c r="A4530" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B4530">
+        <v>14.26729965209961</v>
+      </c>
+      <c r="C4530">
+        <v>4.240099906921387</v>
+      </c>
+      <c r="D4530">
+        <v>3528.7268</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:4">
+      <c r="A4531" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B4531">
+        <v>14.25819969177246</v>
+      </c>
+      <c r="C4531">
+        <v>4.254700183868408</v>
+      </c>
+      <c r="D4531">
+        <v>3526.2641</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:4">
+      <c r="A4532" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B4532">
+        <v>14.20730018615723</v>
+      </c>
+      <c r="C4532">
+        <v>4.246500015258789</v>
+      </c>
+      <c r="D4532">
+        <v>3513.4459</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:4">
+      <c r="A4533" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B4533">
+        <v>14.35669994354248</v>
+      </c>
+      <c r="C4533">
+        <v>4.238200187683105</v>
+      </c>
+      <c r="D4533">
+        <v>3544.9272</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:4">
+      <c r="A4534" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B4534">
+        <v>14.30640029907227</v>
+      </c>
+      <c r="C4534">
+        <v>4.229000091552734</v>
+      </c>
+      <c r="D4534">
+        <v>3529.8022</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:4">
+      <c r="A4535" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B4535">
+        <v>14.13049983978271</v>
+      </c>
+      <c r="C4535">
+        <v>4.218500137329102</v>
+      </c>
+      <c r="D4535">
+        <v>3482.8986</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:4">
+      <c r="A4536" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B4536">
+        <v>14.38609981536865</v>
+      </c>
+      <c r="C4536">
+        <v>4.21619987487793</v>
+      </c>
+      <c r="D4536">
+        <v>3547.9233</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:4">
+      <c r="A4537" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B4537">
+        <v>14.5576000213623</v>
+      </c>
+      <c r="C4537">
+        <v>4.221099853515625</v>
+      </c>
+      <c r="D4537">
+        <v>3591.1678</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:4">
+      <c r="A4538" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B4538">
+        <v>14.5492000579834</v>
+      </c>
+      <c r="C4538">
+        <v>4.23199987411499</v>
+      </c>
+      <c r="D4538">
+        <v>3586.3417</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:4">
+      <c r="A4539" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B4539">
+        <v>14.89770030975342</v>
+      </c>
+      <c r="C4539">
+        <v>4.223100185394287</v>
+      </c>
+      <c r="D4539">
+        <v>3665.0561</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:4">
+      <c r="A4540" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B4540">
+        <v>14.80519962310791</v>
+      </c>
+      <c r="C4540">
+        <v>4.218999862670898</v>
+      </c>
+      <c r="D4540">
+        <v>3643.1047</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:4">
+      <c r="A4541" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B4541">
+        <v>14.92819976806641</v>
+      </c>
+      <c r="C4541">
+        <v>4.209799766540527</v>
+      </c>
+      <c r="D4541">
+        <v>3672.5872</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:4">
+      <c r="A4542" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B4542">
+        <v>14.80990028381348</v>
+      </c>
+      <c r="C4542">
+        <v>4.195400238037109</v>
+      </c>
+      <c r="D4542">
+        <v>3639.5767</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:4">
+      <c r="A4543" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B4543">
+        <v>14.96059989929199</v>
+      </c>
+      <c r="C4543">
+        <v>4.185699939727783</v>
+      </c>
+      <c r="D4543">
+        <v>3674.7587</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:4">
+      <c r="A4544" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B4544">
+        <v>14.39540004730225</v>
+      </c>
+      <c r="C4544">
+        <v>4.182000160217285</v>
+      </c>
+      <c r="D4544">
+        <v>3535.0847</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:4">
+      <c r="A4545" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B4545">
+        <v>14.40499973297119</v>
+      </c>
+      <c r="C4545">
+        <v>4.178500175476074</v>
+      </c>
+      <c r="D4545">
+        <v>3535.7813</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:4">
+      <c r="A4546" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B4546">
+        <v>14.41880035400391</v>
+      </c>
+      <c r="C4546">
+        <v>4.169899940490723</v>
+      </c>
+      <c r="D4546">
+        <v>3533.9827</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:4">
+      <c r="A4547" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B4547">
+        <v>13.62339973449707</v>
+      </c>
+      <c r="C4547">
+        <v>4.14300012588501</v>
+      </c>
+      <c r="D4547">
+        <v>3325.895</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:4">
+      <c r="A4548" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B4548">
+        <v>13.73550033569336</v>
+      </c>
+      <c r="C4548">
+        <v>4.133399963378906</v>
+      </c>
+      <c r="D4548">
+        <v>3341.8073</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:4">
+      <c r="A4549" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B4549">
+        <v>13.546799659729</v>
+      </c>
+      <c r="C4549">
+        <v>4.131999969482422</v>
+      </c>
+      <c r="D4549">
+        <v>3294.1467</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:4">
+      <c r="A4550" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B4550">
+        <v>13.39640045166016</v>
+      </c>
+      <c r="C4550">
+        <v>4.126699924468994</v>
+      </c>
+      <c r="D4550">
+        <v>3246.2767</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:4">
+      <c r="A4551" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B4551">
+        <v>13.48149967193604</v>
+      </c>
+      <c r="C4551">
+        <v>4.124300003051758</v>
+      </c>
+      <c r="D4551">
+        <v>3268.2958</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:4">
+      <c r="A4552" s="3">
+        <v>43391</v>
+      </c>
+      <c r="B4552">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="C4552">
+        <v>4.106599807739258</v>
+      </c>
+      <c r="D4552">
+        <v>3179.5353</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:4">
+      <c r="A4553" s="3">
+        <v>43392</v>
+      </c>
+      <c r="B4553">
+        <v>13.43959999084473</v>
+      </c>
+      <c r="C4553">
+        <v>4.10230016708374</v>
+      </c>
+      <c r="D4553">
+        <v>3263.7825</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:4">
+      <c r="A4554" s="3">
+        <v>43395</v>
+      </c>
+      <c r="B4554">
+        <v>13.99330043792725</v>
+      </c>
+      <c r="C4554">
+        <v>4.108799934387207</v>
+      </c>
+      <c r="D4554">
+        <v>3412.7501</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:4">
+      <c r="A4555" s="3">
+        <v>43396</v>
+      </c>
+      <c r="B4555">
+        <v>13.67380046844482</v>
+      </c>
+      <c r="C4555">
+        <v>4.10290002822876</v>
+      </c>
+      <c r="D4555">
+        <v>3340.4615</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:4">
+      <c r="A4556" s="3">
+        <v>43397</v>
+      </c>
+      <c r="B4556">
+        <v>13.69979953765869</v>
+      </c>
+      <c r="C4556">
+        <v>4.087500095367432</v>
+      </c>
+      <c r="D4556">
+        <v>3343.1078</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/EYBY.xlsx
+++ b/website/everyday-update/data/EYBY.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4109"/>
+  <dimension ref="A1:D4174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -55904,7 +55904,7 @@
       </c>
     </row>
     <row r="3966" spans="1:4">
-      <c r="A3966" s="3">
+      <c r="A3966" s="2">
         <v>43231</v>
       </c>
       <c r="B3966">
@@ -55918,7 +55918,7 @@
       </c>
     </row>
     <row r="3967" spans="1:4">
-      <c r="A3967" s="3">
+      <c r="A3967" s="2">
         <v>43234</v>
       </c>
       <c r="B3967">
@@ -55932,7 +55932,7 @@
       </c>
     </row>
     <row r="3968" spans="1:4">
-      <c r="A3968" s="3">
+      <c r="A3968" s="2">
         <v>43235</v>
       </c>
       <c r="B3968">
@@ -55946,7 +55946,7 @@
       </c>
     </row>
     <row r="3969" spans="1:4">
-      <c r="A3969" s="3">
+      <c r="A3969" s="2">
         <v>43236</v>
       </c>
       <c r="B3969">
@@ -55960,7 +55960,7 @@
       </c>
     </row>
     <row r="3970" spans="1:4">
-      <c r="A3970" s="3">
+      <c r="A3970" s="2">
         <v>43237</v>
       </c>
       <c r="B3970">
@@ -55974,7 +55974,7 @@
       </c>
     </row>
     <row r="3971" spans="1:4">
-      <c r="A3971" s="3">
+      <c r="A3971" s="2">
         <v>43238</v>
       </c>
       <c r="B3971">
@@ -55988,7 +55988,7 @@
       </c>
     </row>
     <row r="3972" spans="1:4">
-      <c r="A3972" s="3">
+      <c r="A3972" s="2">
         <v>43241</v>
       </c>
       <c r="B3972">
@@ -56002,7 +56002,7 @@
       </c>
     </row>
     <row r="3973" spans="1:4">
-      <c r="A3973" s="3">
+      <c r="A3973" s="2">
         <v>43242</v>
       </c>
       <c r="B3973">
@@ -56016,7 +56016,7 @@
       </c>
     </row>
     <row r="3974" spans="1:4">
-      <c r="A3974" s="3">
+      <c r="A3974" s="2">
         <v>43243</v>
       </c>
       <c r="B3974">
@@ -56030,7 +56030,7 @@
       </c>
     </row>
     <row r="3975" spans="1:4">
-      <c r="A3975" s="3">
+      <c r="A3975" s="2">
         <v>43244</v>
       </c>
       <c r="B3975">
@@ -56044,7 +56044,7 @@
       </c>
     </row>
     <row r="3976" spans="1:4">
-      <c r="A3976" s="3">
+      <c r="A3976" s="2">
         <v>43245</v>
       </c>
       <c r="B3976">
@@ -56058,7 +56058,7 @@
       </c>
     </row>
     <row r="3977" spans="1:4">
-      <c r="A3977" s="3">
+      <c r="A3977" s="2">
         <v>43248</v>
       </c>
       <c r="B3977">
@@ -56072,7 +56072,7 @@
       </c>
     </row>
     <row r="3978" spans="1:4">
-      <c r="A3978" s="3">
+      <c r="A3978" s="2">
         <v>43249</v>
       </c>
       <c r="B3978">
@@ -56086,7 +56086,7 @@
       </c>
     </row>
     <row r="3979" spans="1:4">
-      <c r="A3979" s="3">
+      <c r="A3979" s="2">
         <v>43250</v>
       </c>
       <c r="B3979">
@@ -56100,7 +56100,7 @@
       </c>
     </row>
     <row r="3980" spans="1:4">
-      <c r="A3980" s="3">
+      <c r="A3980" s="2">
         <v>43251</v>
       </c>
       <c r="B3980">
@@ -56114,7 +56114,7 @@
       </c>
     </row>
     <row r="3981" spans="1:4">
-      <c r="A3981" s="3">
+      <c r="A3981" s="2">
         <v>43252</v>
       </c>
       <c r="B3981">
@@ -56128,7 +56128,7 @@
       </c>
     </row>
     <row r="3982" spans="1:4">
-      <c r="A3982" s="3">
+      <c r="A3982" s="2">
         <v>43255</v>
       </c>
       <c r="B3982">
@@ -56142,7 +56142,7 @@
       </c>
     </row>
     <row r="3983" spans="1:4">
-      <c r="A3983" s="3">
+      <c r="A3983" s="2">
         <v>43256</v>
       </c>
       <c r="B3983">
@@ -56156,7 +56156,7 @@
       </c>
     </row>
     <row r="3984" spans="1:4">
-      <c r="A3984" s="3">
+      <c r="A3984" s="2">
         <v>43257</v>
       </c>
       <c r="B3984">
@@ -56170,7 +56170,7 @@
       </c>
     </row>
     <row r="3985" spans="1:4">
-      <c r="A3985" s="3">
+      <c r="A3985" s="2">
         <v>43258</v>
       </c>
       <c r="B3985">
@@ -56184,7 +56184,7 @@
       </c>
     </row>
     <row r="3986" spans="1:4">
-      <c r="A3986" s="3">
+      <c r="A3986" s="2">
         <v>43259</v>
       </c>
       <c r="B3986">
@@ -56198,7 +56198,7 @@
       </c>
     </row>
     <row r="3987" spans="1:4">
-      <c r="A3987" s="3">
+      <c r="A3987" s="2">
         <v>43262</v>
       </c>
       <c r="B3987">
@@ -56212,7 +56212,7 @@
       </c>
     </row>
     <row r="3988" spans="1:4">
-      <c r="A3988" s="3">
+      <c r="A3988" s="2">
         <v>43263</v>
       </c>
       <c r="B3988">
@@ -56226,7 +56226,7 @@
       </c>
     </row>
     <row r="3989" spans="1:4">
-      <c r="A3989" s="3">
+      <c r="A3989" s="2">
         <v>43264</v>
       </c>
       <c r="B3989">
@@ -56240,7 +56240,7 @@
       </c>
     </row>
     <row r="3990" spans="1:4">
-      <c r="A3990" s="3">
+      <c r="A3990" s="2">
         <v>43265</v>
       </c>
       <c r="B3990">
@@ -56254,7 +56254,7 @@
       </c>
     </row>
     <row r="3991" spans="1:4">
-      <c r="A3991" s="3">
+      <c r="A3991" s="2">
         <v>43266</v>
       </c>
       <c r="B3991">
@@ -56268,7 +56268,7 @@
       </c>
     </row>
     <row r="3992" spans="1:4">
-      <c r="A3992" s="3">
+      <c r="A3992" s="2">
         <v>43270</v>
       </c>
       <c r="B3992">
@@ -56282,7 +56282,7 @@
       </c>
     </row>
     <row r="3993" spans="1:4">
-      <c r="A3993" s="3">
+      <c r="A3993" s="2">
         <v>43271</v>
       </c>
       <c r="B3993">
@@ -56296,7 +56296,7 @@
       </c>
     </row>
     <row r="3994" spans="1:4">
-      <c r="A3994" s="3">
+      <c r="A3994" s="2">
         <v>43272</v>
       </c>
       <c r="B3994">
@@ -56310,7 +56310,7 @@
       </c>
     </row>
     <row r="3995" spans="1:4">
-      <c r="A3995" s="3">
+      <c r="A3995" s="2">
         <v>43273</v>
       </c>
       <c r="B3995">
@@ -56324,7 +56324,7 @@
       </c>
     </row>
     <row r="3996" spans="1:4">
-      <c r="A3996" s="3">
+      <c r="A3996" s="2">
         <v>43276</v>
       </c>
       <c r="B3996">
@@ -56338,7 +56338,7 @@
       </c>
     </row>
     <row r="3997" spans="1:4">
-      <c r="A3997" s="3">
+      <c r="A3997" s="2">
         <v>43277</v>
       </c>
       <c r="B3997">
@@ -56352,7 +56352,7 @@
       </c>
     </row>
     <row r="3998" spans="1:4">
-      <c r="A3998" s="3">
+      <c r="A3998" s="2">
         <v>43278</v>
       </c>
       <c r="B3998">
@@ -56366,7 +56366,7 @@
       </c>
     </row>
     <row r="3999" spans="1:4">
-      <c r="A3999" s="3">
+      <c r="A3999" s="2">
         <v>43279</v>
       </c>
       <c r="B3999">
@@ -56380,7 +56380,7 @@
       </c>
     </row>
     <row r="4000" spans="1:4">
-      <c r="A4000" s="3">
+      <c r="A4000" s="2">
         <v>43280</v>
       </c>
       <c r="B4000">
@@ -56394,7 +56394,7 @@
       </c>
     </row>
     <row r="4001" spans="1:4">
-      <c r="A4001" s="3">
+      <c r="A4001" s="2">
         <v>43283</v>
       </c>
       <c r="B4001">
@@ -56408,7 +56408,7 @@
       </c>
     </row>
     <row r="4002" spans="1:4">
-      <c r="A4002" s="3">
+      <c r="A4002" s="2">
         <v>43284</v>
       </c>
       <c r="B4002">
@@ -56422,7 +56422,7 @@
       </c>
     </row>
     <row r="4003" spans="1:4">
-      <c r="A4003" s="3">
+      <c r="A4003" s="2">
         <v>43285</v>
       </c>
       <c r="B4003">
@@ -56436,7 +56436,7 @@
       </c>
     </row>
     <row r="4004" spans="1:4">
-      <c r="A4004" s="3">
+      <c r="A4004" s="2">
         <v>43286</v>
       </c>
       <c r="B4004">
@@ -56450,7 +56450,7 @@
       </c>
     </row>
     <row r="4005" spans="1:4">
-      <c r="A4005" s="3">
+      <c r="A4005" s="2">
         <v>43287</v>
       </c>
       <c r="B4005">
@@ -56464,7 +56464,7 @@
       </c>
     </row>
     <row r="4006" spans="1:4">
-      <c r="A4006" s="3">
+      <c r="A4006" s="2">
         <v>43290</v>
       </c>
       <c r="B4006">
@@ -56478,7 +56478,7 @@
       </c>
     </row>
     <row r="4007" spans="1:4">
-      <c r="A4007" s="3">
+      <c r="A4007" s="2">
         <v>43291</v>
       </c>
       <c r="B4007">
@@ -56492,7 +56492,7 @@
       </c>
     </row>
     <row r="4008" spans="1:4">
-      <c r="A4008" s="3">
+      <c r="A4008" s="2">
         <v>43292</v>
       </c>
       <c r="B4008">
@@ -56506,7 +56506,7 @@
       </c>
     </row>
     <row r="4009" spans="1:4">
-      <c r="A4009" s="3">
+      <c r="A4009" s="2">
         <v>43293</v>
       </c>
       <c r="B4009">
@@ -56520,7 +56520,7 @@
       </c>
     </row>
     <row r="4010" spans="1:4">
-      <c r="A4010" s="3">
+      <c r="A4010" s="2">
         <v>43294</v>
       </c>
       <c r="B4010">
@@ -56534,7 +56534,7 @@
       </c>
     </row>
     <row r="4011" spans="1:4">
-      <c r="A4011" s="3">
+      <c r="A4011" s="2">
         <v>43297</v>
       </c>
       <c r="B4011">
@@ -56548,7 +56548,7 @@
       </c>
     </row>
     <row r="4012" spans="1:4">
-      <c r="A4012" s="3">
+      <c r="A4012" s="2">
         <v>43298</v>
       </c>
       <c r="B4012">
@@ -56562,7 +56562,7 @@
       </c>
     </row>
     <row r="4013" spans="1:4">
-      <c r="A4013" s="3">
+      <c r="A4013" s="2">
         <v>43299</v>
       </c>
       <c r="B4013">
@@ -56576,7 +56576,7 @@
       </c>
     </row>
     <row r="4014" spans="1:4">
-      <c r="A4014" s="3">
+      <c r="A4014" s="2">
         <v>43300</v>
       </c>
       <c r="B4014">
@@ -56590,7 +56590,7 @@
       </c>
     </row>
     <row r="4015" spans="1:4">
-      <c r="A4015" s="3">
+      <c r="A4015" s="2">
         <v>43301</v>
       </c>
       <c r="B4015">
@@ -56604,7 +56604,7 @@
       </c>
     </row>
     <row r="4016" spans="1:4">
-      <c r="A4016" s="3">
+      <c r="A4016" s="2">
         <v>43304</v>
       </c>
       <c r="B4016">
@@ -56618,7 +56618,7 @@
       </c>
     </row>
     <row r="4017" spans="1:4">
-      <c r="A4017" s="3">
+      <c r="A4017" s="2">
         <v>43305</v>
       </c>
       <c r="B4017">
@@ -56632,7 +56632,7 @@
       </c>
     </row>
     <row r="4018" spans="1:4">
-      <c r="A4018" s="3">
+      <c r="A4018" s="2">
         <v>43306</v>
       </c>
       <c r="B4018">
@@ -56646,7 +56646,7 @@
       </c>
     </row>
     <row r="4019" spans="1:4">
-      <c r="A4019" s="3">
+      <c r="A4019" s="2">
         <v>43307</v>
       </c>
       <c r="B4019">
@@ -56660,7 +56660,7 @@
       </c>
     </row>
     <row r="4020" spans="1:4">
-      <c r="A4020" s="3">
+      <c r="A4020" s="2">
         <v>43308</v>
       </c>
       <c r="B4020">
@@ -56674,7 +56674,7 @@
       </c>
     </row>
     <row r="4021" spans="1:4">
-      <c r="A4021" s="3">
+      <c r="A4021" s="2">
         <v>43311</v>
       </c>
       <c r="B4021">
@@ -56688,7 +56688,7 @@
       </c>
     </row>
     <row r="4022" spans="1:4">
-      <c r="A4022" s="3">
+      <c r="A4022" s="2">
         <v>43312</v>
       </c>
       <c r="B4022">
@@ -56702,7 +56702,7 @@
       </c>
     </row>
     <row r="4023" spans="1:4">
-      <c r="A4023" s="3">
+      <c r="A4023" s="2">
         <v>43313</v>
       </c>
       <c r="B4023">
@@ -56716,7 +56716,7 @@
       </c>
     </row>
     <row r="4024" spans="1:4">
-      <c r="A4024" s="3">
+      <c r="A4024" s="2">
         <v>43314</v>
       </c>
       <c r="B4024">
@@ -56730,7 +56730,7 @@
       </c>
     </row>
     <row r="4025" spans="1:4">
-      <c r="A4025" s="3">
+      <c r="A4025" s="2">
         <v>43315</v>
       </c>
       <c r="B4025">
@@ -56744,7 +56744,7 @@
       </c>
     </row>
     <row r="4026" spans="1:4">
-      <c r="A4026" s="3">
+      <c r="A4026" s="2">
         <v>43318</v>
       </c>
       <c r="B4026">
@@ -56758,7 +56758,7 @@
       </c>
     </row>
     <row r="4027" spans="1:4">
-      <c r="A4027" s="3">
+      <c r="A4027" s="2">
         <v>43319</v>
       </c>
       <c r="B4027">
@@ -56772,7 +56772,7 @@
       </c>
     </row>
     <row r="4028" spans="1:4">
-      <c r="A4028" s="3">
+      <c r="A4028" s="2">
         <v>43320</v>
       </c>
       <c r="B4028">
@@ -56786,7 +56786,7 @@
       </c>
     </row>
     <row r="4029" spans="1:4">
-      <c r="A4029" s="3">
+      <c r="A4029" s="2">
         <v>43321</v>
       </c>
       <c r="B4029">
@@ -56800,7 +56800,7 @@
       </c>
     </row>
     <row r="4030" spans="1:4">
-      <c r="A4030" s="3">
+      <c r="A4030" s="2">
         <v>43322</v>
       </c>
       <c r="B4030">
@@ -56814,7 +56814,7 @@
       </c>
     </row>
     <row r="4031" spans="1:4">
-      <c r="A4031" s="3">
+      <c r="A4031" s="2">
         <v>43325</v>
       </c>
       <c r="B4031">
@@ -56828,7 +56828,7 @@
       </c>
     </row>
     <row r="4032" spans="1:4">
-      <c r="A4032" s="3">
+      <c r="A4032" s="2">
         <v>43326</v>
       </c>
       <c r="B4032">
@@ -56842,7 +56842,7 @@
       </c>
     </row>
     <row r="4033" spans="1:4">
-      <c r="A4033" s="3">
+      <c r="A4033" s="2">
         <v>43327</v>
       </c>
       <c r="B4033">
@@ -56856,7 +56856,7 @@
       </c>
     </row>
     <row r="4034" spans="1:4">
-      <c r="A4034" s="3">
+      <c r="A4034" s="2">
         <v>43328</v>
       </c>
       <c r="B4034">
@@ -56870,7 +56870,7 @@
       </c>
     </row>
     <row r="4035" spans="1:4">
-      <c r="A4035" s="3">
+      <c r="A4035" s="2">
         <v>43329</v>
       </c>
       <c r="B4035">
@@ -56884,7 +56884,7 @@
       </c>
     </row>
     <row r="4036" spans="1:4">
-      <c r="A4036" s="3">
+      <c r="A4036" s="2">
         <v>43332</v>
       </c>
       <c r="B4036">
@@ -56898,7 +56898,7 @@
       </c>
     </row>
     <row r="4037" spans="1:4">
-      <c r="A4037" s="3">
+      <c r="A4037" s="2">
         <v>43333</v>
       </c>
       <c r="B4037">
@@ -56912,7 +56912,7 @@
       </c>
     </row>
     <row r="4038" spans="1:4">
-      <c r="A4038" s="3">
+      <c r="A4038" s="2">
         <v>43334</v>
       </c>
       <c r="B4038">
@@ -56926,7 +56926,7 @@
       </c>
     </row>
     <row r="4039" spans="1:4">
-      <c r="A4039" s="3">
+      <c r="A4039" s="2">
         <v>43335</v>
       </c>
       <c r="B4039">
@@ -56940,7 +56940,7 @@
       </c>
     </row>
     <row r="4040" spans="1:4">
-      <c r="A4040" s="3">
+      <c r="A4040" s="2">
         <v>43336</v>
       </c>
       <c r="B4040">
@@ -56954,7 +56954,7 @@
       </c>
     </row>
     <row r="4041" spans="1:4">
-      <c r="A4041" s="3">
+      <c r="A4041" s="2">
         <v>43339</v>
       </c>
       <c r="B4041">
@@ -56968,7 +56968,7 @@
       </c>
     </row>
     <row r="4042" spans="1:4">
-      <c r="A4042" s="3">
+      <c r="A4042" s="2">
         <v>43340</v>
       </c>
       <c r="B4042">
@@ -56982,7 +56982,7 @@
       </c>
     </row>
     <row r="4043" spans="1:4">
-      <c r="A4043" s="3">
+      <c r="A4043" s="2">
         <v>43341</v>
       </c>
       <c r="B4043">
@@ -56996,7 +56996,7 @@
       </c>
     </row>
     <row r="4044" spans="1:4">
-      <c r="A4044" s="3">
+      <c r="A4044" s="2">
         <v>43342</v>
       </c>
       <c r="B4044">
@@ -57010,7 +57010,7 @@
       </c>
     </row>
     <row r="4045" spans="1:4">
-      <c r="A4045" s="3">
+      <c r="A4045" s="2">
         <v>43343</v>
       </c>
       <c r="B4045">
@@ -57024,7 +57024,7 @@
       </c>
     </row>
     <row r="4046" spans="1:4">
-      <c r="A4046" s="3">
+      <c r="A4046" s="2">
         <v>43346</v>
       </c>
       <c r="B4046">
@@ -57038,7 +57038,7 @@
       </c>
     </row>
     <row r="4047" spans="1:4">
-      <c r="A4047" s="3">
+      <c r="A4047" s="2">
         <v>43347</v>
       </c>
       <c r="B4047">
@@ -57052,7 +57052,7 @@
       </c>
     </row>
     <row r="4048" spans="1:4">
-      <c r="A4048" s="3">
+      <c r="A4048" s="2">
         <v>43348</v>
       </c>
       <c r="B4048">
@@ -57066,7 +57066,7 @@
       </c>
     </row>
     <row r="4049" spans="1:4">
-      <c r="A4049" s="3">
+      <c r="A4049" s="2">
         <v>43349</v>
       </c>
       <c r="B4049">
@@ -57080,7 +57080,7 @@
       </c>
     </row>
     <row r="4050" spans="1:4">
-      <c r="A4050" s="3">
+      <c r="A4050" s="2">
         <v>43350</v>
       </c>
       <c r="B4050">
@@ -57094,7 +57094,7 @@
       </c>
     </row>
     <row r="4051" spans="1:4">
-      <c r="A4051" s="3">
+      <c r="A4051" s="2">
         <v>43353</v>
       </c>
       <c r="B4051">
@@ -57108,7 +57108,7 @@
       </c>
     </row>
     <row r="4052" spans="1:4">
-      <c r="A4052" s="3">
+      <c r="A4052" s="2">
         <v>43354</v>
       </c>
       <c r="B4052">
@@ -57122,7 +57122,7 @@
       </c>
     </row>
     <row r="4053" spans="1:4">
-      <c r="A4053" s="3">
+      <c r="A4053" s="2">
         <v>43355</v>
       </c>
       <c r="B4053">
@@ -57136,7 +57136,7 @@
       </c>
     </row>
     <row r="4054" spans="1:4">
-      <c r="A4054" s="3">
+      <c r="A4054" s="2">
         <v>43356</v>
       </c>
       <c r="B4054">
@@ -57150,7 +57150,7 @@
       </c>
     </row>
     <row r="4055" spans="1:4">
-      <c r="A4055" s="3">
+      <c r="A4055" s="2">
         <v>43357</v>
       </c>
       <c r="B4055">
@@ -57164,7 +57164,7 @@
       </c>
     </row>
     <row r="4056" spans="1:4">
-      <c r="A4056" s="3">
+      <c r="A4056" s="2">
         <v>43360</v>
       </c>
       <c r="B4056">
@@ -57178,7 +57178,7 @@
       </c>
     </row>
     <row r="4057" spans="1:4">
-      <c r="A4057" s="3">
+      <c r="A4057" s="2">
         <v>43361</v>
       </c>
       <c r="B4057">
@@ -57192,7 +57192,7 @@
       </c>
     </row>
     <row r="4058" spans="1:4">
-      <c r="A4058" s="3">
+      <c r="A4058" s="2">
         <v>43362</v>
       </c>
       <c r="B4058">
@@ -57206,7 +57206,7 @@
       </c>
     </row>
     <row r="4059" spans="1:4">
-      <c r="A4059" s="3">
+      <c r="A4059" s="2">
         <v>43363</v>
       </c>
       <c r="B4059">
@@ -57220,7 +57220,7 @@
       </c>
     </row>
     <row r="4060" spans="1:4">
-      <c r="A4060" s="3">
+      <c r="A4060" s="2">
         <v>43364</v>
       </c>
       <c r="B4060">
@@ -57234,7 +57234,7 @@
       </c>
     </row>
     <row r="4061" spans="1:4">
-      <c r="A4061" s="3">
+      <c r="A4061" s="2">
         <v>43368</v>
       </c>
       <c r="B4061">
@@ -57248,7 +57248,7 @@
       </c>
     </row>
     <row r="4062" spans="1:4">
-      <c r="A4062" s="3">
+      <c r="A4062" s="2">
         <v>43369</v>
       </c>
       <c r="B4062">
@@ -57262,7 +57262,7 @@
       </c>
     </row>
     <row r="4063" spans="1:4">
-      <c r="A4063" s="3">
+      <c r="A4063" s="2">
         <v>43370</v>
       </c>
       <c r="B4063">
@@ -57276,7 +57276,7 @@
       </c>
     </row>
     <row r="4064" spans="1:4">
-      <c r="A4064" s="3">
+      <c r="A4064" s="2">
         <v>43371</v>
       </c>
       <c r="B4064">
@@ -57290,7 +57290,7 @@
       </c>
     </row>
     <row r="4065" spans="1:4">
-      <c r="A4065" s="3">
+      <c r="A4065" s="2">
         <v>43381</v>
       </c>
       <c r="B4065">
@@ -57304,7 +57304,7 @@
       </c>
     </row>
     <row r="4066" spans="1:4">
-      <c r="A4066" s="3">
+      <c r="A4066" s="2">
         <v>43382</v>
       </c>
       <c r="B4066">
@@ -57318,7 +57318,7 @@
       </c>
     </row>
     <row r="4067" spans="1:4">
-      <c r="A4067" s="3">
+      <c r="A4067" s="2">
         <v>43383</v>
       </c>
       <c r="B4067">
@@ -57332,7 +57332,7 @@
       </c>
     </row>
     <row r="4068" spans="1:4">
-      <c r="A4068" s="3">
+      <c r="A4068" s="2">
         <v>43384</v>
       </c>
       <c r="B4068">
@@ -57346,7 +57346,7 @@
       </c>
     </row>
     <row r="4069" spans="1:4">
-      <c r="A4069" s="3">
+      <c r="A4069" s="2">
         <v>43385</v>
       </c>
       <c r="B4069">
@@ -57360,7 +57360,7 @@
       </c>
     </row>
     <row r="4070" spans="1:4">
-      <c r="A4070" s="3">
+      <c r="A4070" s="2">
         <v>43388</v>
       </c>
       <c r="B4070">
@@ -57374,7 +57374,7 @@
       </c>
     </row>
     <row r="4071" spans="1:4">
-      <c r="A4071" s="3">
+      <c r="A4071" s="2">
         <v>43389</v>
       </c>
       <c r="B4071">
@@ -57388,7 +57388,7 @@
       </c>
     </row>
     <row r="4072" spans="1:4">
-      <c r="A4072" s="3">
+      <c r="A4072" s="2">
         <v>43390</v>
       </c>
       <c r="B4072">
@@ -57402,7 +57402,7 @@
       </c>
     </row>
     <row r="4073" spans="1:4">
-      <c r="A4073" s="3">
+      <c r="A4073" s="2">
         <v>43391</v>
       </c>
       <c r="B4073">
@@ -57416,7 +57416,7 @@
       </c>
     </row>
     <row r="4074" spans="1:4">
-      <c r="A4074" s="3">
+      <c r="A4074" s="2">
         <v>43392</v>
       </c>
       <c r="B4074">
@@ -57430,7 +57430,7 @@
       </c>
     </row>
     <row r="4075" spans="1:4">
-      <c r="A4075" s="3">
+      <c r="A4075" s="2">
         <v>43395</v>
       </c>
       <c r="B4075">
@@ -57444,7 +57444,7 @@
       </c>
     </row>
     <row r="4076" spans="1:4">
-      <c r="A4076" s="3">
+      <c r="A4076" s="2">
         <v>43396</v>
       </c>
       <c r="B4076">
@@ -57458,7 +57458,7 @@
       </c>
     </row>
     <row r="4077" spans="1:4">
-      <c r="A4077" s="3">
+      <c r="A4077" s="2">
         <v>43397</v>
       </c>
       <c r="B4077">
@@ -57472,7 +57472,7 @@
       </c>
     </row>
     <row r="4078" spans="1:4">
-      <c r="A4078" s="3">
+      <c r="A4078" s="2">
         <v>43398</v>
       </c>
       <c r="B4078">
@@ -57486,7 +57486,7 @@
       </c>
     </row>
     <row r="4079" spans="1:4">
-      <c r="A4079" s="3">
+      <c r="A4079" s="2">
         <v>43399</v>
       </c>
       <c r="B4079">
@@ -57500,7 +57500,7 @@
       </c>
     </row>
     <row r="4080" spans="1:4">
-      <c r="A4080" s="3">
+      <c r="A4080" s="2">
         <v>43402</v>
       </c>
       <c r="B4080">
@@ -57514,7 +57514,7 @@
       </c>
     </row>
     <row r="4081" spans="1:4">
-      <c r="A4081" s="3">
+      <c r="A4081" s="2">
         <v>43403</v>
       </c>
       <c r="B4081">
@@ -57528,7 +57528,7 @@
       </c>
     </row>
     <row r="4082" spans="1:4">
-      <c r="A4082" s="3">
+      <c r="A4082" s="2">
         <v>43404</v>
       </c>
       <c r="B4082">
@@ -57542,7 +57542,7 @@
       </c>
     </row>
     <row r="4083" spans="1:4">
-      <c r="A4083" s="3">
+      <c r="A4083" s="2">
         <v>43405</v>
       </c>
       <c r="B4083">
@@ -57556,7 +57556,7 @@
       </c>
     </row>
     <row r="4084" spans="1:4">
-      <c r="A4084" s="3">
+      <c r="A4084" s="2">
         <v>43406</v>
       </c>
       <c r="B4084">
@@ -57570,7 +57570,7 @@
       </c>
     </row>
     <row r="4085" spans="1:4">
-      <c r="A4085" s="3">
+      <c r="A4085" s="2">
         <v>43409</v>
       </c>
       <c r="B4085">
@@ -57584,7 +57584,7 @@
       </c>
     </row>
     <row r="4086" spans="1:4">
-      <c r="A4086" s="3">
+      <c r="A4086" s="2">
         <v>43410</v>
       </c>
       <c r="B4086">
@@ -57598,7 +57598,7 @@
       </c>
     </row>
     <row r="4087" spans="1:4">
-      <c r="A4087" s="3">
+      <c r="A4087" s="2">
         <v>43411</v>
       </c>
       <c r="B4087">
@@ -57612,7 +57612,7 @@
       </c>
     </row>
     <row r="4088" spans="1:4">
-      <c r="A4088" s="3">
+      <c r="A4088" s="2">
         <v>43412</v>
       </c>
       <c r="B4088">
@@ -57626,7 +57626,7 @@
       </c>
     </row>
     <row r="4089" spans="1:4">
-      <c r="A4089" s="3">
+      <c r="A4089" s="2">
         <v>43413</v>
       </c>
       <c r="B4089">
@@ -57640,7 +57640,7 @@
       </c>
     </row>
     <row r="4090" spans="1:4">
-      <c r="A4090" s="3">
+      <c r="A4090" s="2">
         <v>43416</v>
       </c>
       <c r="B4090">
@@ -57654,7 +57654,7 @@
       </c>
     </row>
     <row r="4091" spans="1:4">
-      <c r="A4091" s="3">
+      <c r="A4091" s="2">
         <v>43417</v>
       </c>
       <c r="B4091">
@@ -57668,7 +57668,7 @@
       </c>
     </row>
     <row r="4092" spans="1:4">
-      <c r="A4092" s="3">
+      <c r="A4092" s="2">
         <v>43418</v>
       </c>
       <c r="B4092">
@@ -57682,7 +57682,7 @@
       </c>
     </row>
     <row r="4093" spans="1:4">
-      <c r="A4093" s="3">
+      <c r="A4093" s="2">
         <v>43419</v>
       </c>
       <c r="B4093">
@@ -57696,7 +57696,7 @@
       </c>
     </row>
     <row r="4094" spans="1:4">
-      <c r="A4094" s="3">
+      <c r="A4094" s="2">
         <v>43420</v>
       </c>
       <c r="B4094">
@@ -57710,7 +57710,7 @@
       </c>
     </row>
     <row r="4095" spans="1:4">
-      <c r="A4095" s="3">
+      <c r="A4095" s="2">
         <v>43423</v>
       </c>
       <c r="B4095">
@@ -57724,7 +57724,7 @@
       </c>
     </row>
     <row r="4096" spans="1:4">
-      <c r="A4096" s="3">
+      <c r="A4096" s="2">
         <v>43424</v>
       </c>
       <c r="B4096">
@@ -57738,7 +57738,7 @@
       </c>
     </row>
     <row r="4097" spans="1:4">
-      <c r="A4097" s="3">
+      <c r="A4097" s="2">
         <v>43425</v>
       </c>
       <c r="B4097">
@@ -57752,7 +57752,7 @@
       </c>
     </row>
     <row r="4098" spans="1:4">
-      <c r="A4098" s="3">
+      <c r="A4098" s="2">
         <v>43426</v>
       </c>
       <c r="B4098">
@@ -57766,7 +57766,7 @@
       </c>
     </row>
     <row r="4099" spans="1:4">
-      <c r="A4099" s="3">
+      <c r="A4099" s="2">
         <v>43427</v>
       </c>
       <c r="B4099">
@@ -57780,7 +57780,7 @@
       </c>
     </row>
     <row r="4100" spans="1:4">
-      <c r="A4100" s="3">
+      <c r="A4100" s="2">
         <v>43430</v>
       </c>
       <c r="B4100">
@@ -57794,7 +57794,7 @@
       </c>
     </row>
     <row r="4101" spans="1:4">
-      <c r="A4101" s="3">
+      <c r="A4101" s="2">
         <v>43431</v>
       </c>
       <c r="B4101">
@@ -57808,7 +57808,7 @@
       </c>
     </row>
     <row r="4102" spans="1:4">
-      <c r="A4102" s="3">
+      <c r="A4102" s="2">
         <v>43432</v>
       </c>
       <c r="B4102">
@@ -57822,7 +57822,7 @@
       </c>
     </row>
     <row r="4103" spans="1:4">
-      <c r="A4103" s="3">
+      <c r="A4103" s="2">
         <v>43433</v>
       </c>
       <c r="B4103">
@@ -57836,7 +57836,7 @@
       </c>
     </row>
     <row r="4104" spans="1:4">
-      <c r="A4104" s="3">
+      <c r="A4104" s="2">
         <v>43434</v>
       </c>
       <c r="B4104">
@@ -57850,7 +57850,7 @@
       </c>
     </row>
     <row r="4105" spans="1:4">
-      <c r="A4105" s="3">
+      <c r="A4105" s="2">
         <v>43437</v>
       </c>
       <c r="B4105">
@@ -57864,7 +57864,7 @@
       </c>
     </row>
     <row r="4106" spans="1:4">
-      <c r="A4106" s="3">
+      <c r="A4106" s="2">
         <v>43438</v>
       </c>
       <c r="B4106">
@@ -57878,7 +57878,7 @@
       </c>
     </row>
     <row r="4107" spans="1:4">
-      <c r="A4107" s="3">
+      <c r="A4107" s="2">
         <v>43439</v>
       </c>
       <c r="B4107">
@@ -57892,7 +57892,7 @@
       </c>
     </row>
     <row r="4108" spans="1:4">
-      <c r="A4108" s="3">
+      <c r="A4108" s="2">
         <v>43440</v>
       </c>
       <c r="B4108">
@@ -57906,7 +57906,7 @@
       </c>
     </row>
     <row r="4109" spans="1:4">
-      <c r="A4109" s="3">
+      <c r="A4109" s="2">
         <v>43441</v>
       </c>
       <c r="B4109">
@@ -57917,6 +57917,916 @@
       </c>
       <c r="D4109">
         <v>3437.0528</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:4">
+      <c r="A4110" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B4110">
+        <v>13.68980026245117</v>
+      </c>
+      <c r="C4110">
+        <v>3.790600061416626</v>
+      </c>
+      <c r="D4110">
+        <v>3398.0427</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:4">
+      <c r="A4111" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B4111">
+        <v>13.76159954071045</v>
+      </c>
+      <c r="C4111">
+        <v>3.7846999168396</v>
+      </c>
+      <c r="D4111">
+        <v>3419.7385</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:4">
+      <c r="A4112" s="3">
+        <v>43446</v>
+      </c>
+      <c r="B4112">
+        <v>13.80480003356934</v>
+      </c>
+      <c r="C4112">
+        <v>3.782700061798096</v>
+      </c>
+      <c r="D4112">
+        <v>3425.7215</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:4">
+      <c r="A4113" s="3">
+        <v>43447</v>
+      </c>
+      <c r="B4113">
+        <v>13.96959972381592</v>
+      </c>
+      <c r="C4113">
+        <v>3.818099975585938</v>
+      </c>
+      <c r="D4113">
+        <v>3468.5117</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:4">
+      <c r="A4114" s="3">
+        <v>43448</v>
+      </c>
+      <c r="B4114">
+        <v>13.71280002593994</v>
+      </c>
+      <c r="C4114">
+        <v>3.828399896621704</v>
+      </c>
+      <c r="D4114">
+        <v>3397.055</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:4">
+      <c r="A4115" s="3">
+        <v>43451</v>
+      </c>
+      <c r="B4115">
+        <v>13.71660041809082</v>
+      </c>
+      <c r="C4115">
+        <v>3.848200082778931</v>
+      </c>
+      <c r="D4115">
+        <v>3392.6726</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:4">
+      <c r="A4116" s="3">
+        <v>43452</v>
+      </c>
+      <c r="B4116">
+        <v>13.60410022735596</v>
+      </c>
+      <c r="C4116">
+        <v>3.851000070571899</v>
+      </c>
+      <c r="D4116">
+        <v>3364.5301</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:4">
+      <c r="A4117" s="3">
+        <v>43453</v>
+      </c>
+      <c r="B4117">
+        <v>13.45040035247803</v>
+      </c>
+      <c r="C4117">
+        <v>3.846699953079224</v>
+      </c>
+      <c r="D4117">
+        <v>3322.8267</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:4">
+      <c r="A4118" s="3">
+        <v>43454</v>
+      </c>
+      <c r="B4118">
+        <v>13.40240001678467</v>
+      </c>
+      <c r="C4118">
+        <v>3.822499990463257</v>
+      </c>
+      <c r="D4118">
+        <v>3316.5886</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:4">
+      <c r="A4119" s="3">
+        <v>43455</v>
+      </c>
+      <c r="B4119">
+        <v>13.28579998016357</v>
+      </c>
+      <c r="C4119">
+        <v>3.819799900054932</v>
+      </c>
+      <c r="D4119">
+        <v>3284.13</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:4">
+      <c r="A4120" s="3">
+        <v>43458</v>
+      </c>
+      <c r="B4120">
+        <v>13.35799980163574</v>
+      </c>
+      <c r="C4120">
+        <v>3.825400114059448</v>
+      </c>
+      <c r="D4120">
+        <v>3303.0189</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:4">
+      <c r="A4121" s="3">
+        <v>43459</v>
+      </c>
+      <c r="B4121">
+        <v>13.24810028076172</v>
+      </c>
+      <c r="C4121">
+        <v>3.823299884796143</v>
+      </c>
+      <c r="D4121">
+        <v>3273.9771</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:4">
+      <c r="A4122" s="3">
+        <v>43460</v>
+      </c>
+      <c r="B4122">
+        <v>13.21220016479492</v>
+      </c>
+      <c r="C4122">
+        <v>3.819600105285645</v>
+      </c>
+      <c r="D4122">
+        <v>3260.8401</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:4">
+      <c r="A4123" s="3">
+        <v>43461</v>
+      </c>
+      <c r="B4123">
+        <v>13.10869979858398</v>
+      </c>
+      <c r="C4123">
+        <v>3.802700042724609</v>
+      </c>
+      <c r="D4123">
+        <v>3231.2175</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:4">
+      <c r="A4124" s="3">
+        <v>43462</v>
+      </c>
+      <c r="B4124">
+        <v>13.14430046081543</v>
+      </c>
+      <c r="C4124">
+        <v>3.759599924087524</v>
+      </c>
+      <c r="D4124">
+        <v>3244.8955</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:4">
+      <c r="A4125" s="3">
+        <v>43467</v>
+      </c>
+      <c r="B4125">
+        <v>13.00139999389648</v>
+      </c>
+      <c r="C4125">
+        <v>3.718699932098389</v>
+      </c>
+      <c r="D4125">
+        <v>3214.2658</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:4">
+      <c r="A4126" s="3">
+        <v>43468</v>
+      </c>
+      <c r="B4126">
+        <v>12.9689998626709</v>
+      </c>
+      <c r="C4126">
+        <v>3.694900035858154</v>
+      </c>
+      <c r="D4126">
+        <v>3203.5551</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:4">
+      <c r="A4127" s="3">
+        <v>43469</v>
+      </c>
+      <c r="B4127">
+        <v>13.25720024108887</v>
+      </c>
+      <c r="C4127">
+        <v>3.682699918746948</v>
+      </c>
+      <c r="D4127">
+        <v>3282.2831</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:4">
+      <c r="A4128" s="3">
+        <v>43472</v>
+      </c>
+      <c r="B4128">
+        <v>13.38710021972656</v>
+      </c>
+      <c r="C4128">
+        <v>3.668699979782104</v>
+      </c>
+      <c r="D4128">
+        <v>3323.8462</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:4">
+      <c r="A4129" s="3">
+        <v>43473</v>
+      </c>
+      <c r="B4129">
+        <v>13.35849952697754</v>
+      </c>
+      <c r="C4129">
+        <v>3.629600048065186</v>
+      </c>
+      <c r="D4129">
+        <v>3317.8362</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:4">
+      <c r="A4130" s="3">
+        <v>43474</v>
+      </c>
+      <c r="B4130">
+        <v>13.44939994812012</v>
+      </c>
+      <c r="C4130">
+        <v>3.624099969863892</v>
+      </c>
+      <c r="D4130">
+        <v>3339.6651</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:4">
+      <c r="A4131" s="3">
+        <v>43475</v>
+      </c>
+      <c r="B4131">
+        <v>13.40569972991943</v>
+      </c>
+      <c r="C4131">
+        <v>3.621299982070923</v>
+      </c>
+      <c r="D4131">
+        <v>3333.0501</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:4">
+      <c r="A4132" s="3">
+        <v>43476</v>
+      </c>
+      <c r="B4132">
+        <v>13.50370025634766</v>
+      </c>
+      <c r="C4132">
+        <v>3.619899988174438</v>
+      </c>
+      <c r="D4132">
+        <v>3358.3954</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:4">
+      <c r="A4133" s="3">
+        <v>43479</v>
+      </c>
+      <c r="B4133">
+        <v>13.40480041503906</v>
+      </c>
+      <c r="C4133">
+        <v>3.629600048065186</v>
+      </c>
+      <c r="D4133">
+        <v>3334.641</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:4">
+      <c r="A4134" s="3">
+        <v>43480</v>
+      </c>
+      <c r="B4134">
+        <v>13.59280014038086</v>
+      </c>
+      <c r="C4134">
+        <v>3.635900020599365</v>
+      </c>
+      <c r="D4134">
+        <v>3386.2528</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:4">
+      <c r="A4135" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B4135">
+        <v>13.59000015258789</v>
+      </c>
+      <c r="C4135">
+        <v>3.602299928665161</v>
+      </c>
+      <c r="D4135">
+        <v>3383.5527</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:4">
+      <c r="A4136" s="3">
+        <v>43482</v>
+      </c>
+      <c r="B4136">
+        <v>13.51790046691895</v>
+      </c>
+      <c r="C4136">
+        <v>3.593600034713745</v>
+      </c>
+      <c r="D4136">
+        <v>3359.9352</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:4">
+      <c r="A4137" s="3">
+        <v>43483</v>
+      </c>
+      <c r="B4137">
+        <v>13.69849967956543</v>
+      </c>
+      <c r="C4137">
+        <v>3.603899955749512</v>
+      </c>
+      <c r="D4137">
+        <v>3403.2947</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:4">
+      <c r="A4138" s="3">
+        <v>43486</v>
+      </c>
+      <c r="B4138">
+        <v>13.78180027008057</v>
+      </c>
+      <c r="C4138">
+        <v>3.615000009536743</v>
+      </c>
+      <c r="D4138">
+        <v>3421.5607</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:4">
+      <c r="A4139" s="3">
+        <v>43487</v>
+      </c>
+      <c r="B4139">
+        <v>13.62339973449707</v>
+      </c>
+      <c r="C4139">
+        <v>3.622900009155273</v>
+      </c>
+      <c r="D4139">
+        <v>3379.5187</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:4">
+      <c r="A4140" s="3">
+        <v>43488</v>
+      </c>
+      <c r="B4140">
+        <v>13.64009952545166</v>
+      </c>
+      <c r="C4140">
+        <v>3.627099990844727</v>
+      </c>
+      <c r="D4140">
+        <v>3381.1585</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:4">
+      <c r="A4141" s="3">
+        <v>43489</v>
+      </c>
+      <c r="B4141">
+        <v>13.69950008392334</v>
+      </c>
+      <c r="C4141">
+        <v>3.636600017547607</v>
+      </c>
+      <c r="D4141">
+        <v>3399.1011</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:4">
+      <c r="A4142" s="3">
+        <v>43490</v>
+      </c>
+      <c r="B4142">
+        <v>13.7411003112793</v>
+      </c>
+      <c r="C4142">
+        <v>3.653599977493286</v>
+      </c>
+      <c r="D4142">
+        <v>3403.4975</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:4">
+      <c r="A4143" s="3">
+        <v>43493</v>
+      </c>
+      <c r="B4143">
+        <v>13.75419998168945</v>
+      </c>
+      <c r="C4143">
+        <v>3.661799907684326</v>
+      </c>
+      <c r="D4143">
+        <v>3392.5762</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:4">
+      <c r="A4144" s="3">
+        <v>43494</v>
+      </c>
+      <c r="B4144">
+        <v>13.70349979400635</v>
+      </c>
+      <c r="C4144">
+        <v>3.649100065231323</v>
+      </c>
+      <c r="D4144">
+        <v>3372.3261</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:4">
+      <c r="A4145" s="3">
+        <v>43495</v>
+      </c>
+      <c r="B4145">
+        <v>13.57979965209961</v>
+      </c>
+      <c r="C4145">
+        <v>3.63700008392334</v>
+      </c>
+      <c r="D4145">
+        <v>3337.2465</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:4">
+      <c r="A4146" s="3">
+        <v>43496</v>
+      </c>
+      <c r="B4146">
+        <v>13.63430023193359</v>
+      </c>
+      <c r="C4146">
+        <v>3.628000020980835</v>
+      </c>
+      <c r="D4146">
+        <v>3333.465</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:4">
+      <c r="A4147" s="3">
+        <v>43497</v>
+      </c>
+      <c r="B4147">
+        <v>13.86439990997314</v>
+      </c>
+      <c r="C4147">
+        <v>3.623899936676025</v>
+      </c>
+      <c r="D4147">
+        <v>3400.7148</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:4">
+      <c r="A4148" s="3">
+        <v>43507</v>
+      </c>
+      <c r="B4148">
+        <v>14.11050033569336</v>
+      </c>
+      <c r="C4148">
+        <v>3.607199907302856</v>
+      </c>
+      <c r="D4148">
+        <v>3476.4956</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:4">
+      <c r="A4149" s="3">
+        <v>43508</v>
+      </c>
+      <c r="B4149">
+        <v>14.21150016784668</v>
+      </c>
+      <c r="C4149">
+        <v>3.602099895477295</v>
+      </c>
+      <c r="D4149">
+        <v>3510.0015</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:4">
+      <c r="A4150" s="3">
+        <v>43509</v>
+      </c>
+      <c r="B4150">
+        <v>14.48849964141846</v>
+      </c>
+      <c r="C4150">
+        <v>3.601200103759766</v>
+      </c>
+      <c r="D4150">
+        <v>3575.5265</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:4">
+      <c r="A4151" s="3">
+        <v>43510</v>
+      </c>
+      <c r="B4151">
+        <v>14.50769996643066</v>
+      </c>
+      <c r="C4151">
+        <v>3.605499982833862</v>
+      </c>
+      <c r="D4151">
+        <v>3586.3165</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:4">
+      <c r="A4152" s="3">
+        <v>43511</v>
+      </c>
+      <c r="B4152">
+        <v>14.33129978179932</v>
+      </c>
+      <c r="C4152">
+        <v>3.604899883270264</v>
+      </c>
+      <c r="D4152">
+        <v>3547.7599</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:4">
+      <c r="A4153" s="3">
+        <v>43514</v>
+      </c>
+      <c r="B4153">
+        <v>14.76990032196045</v>
+      </c>
+      <c r="C4153">
+        <v>3.619199991226196</v>
+      </c>
+      <c r="D4153">
+        <v>3664.9033</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:4">
+      <c r="A4154" s="3">
+        <v>43515</v>
+      </c>
+      <c r="B4154">
+        <v>14.785400390625</v>
+      </c>
+      <c r="C4154">
+        <v>3.622699975967407</v>
+      </c>
+      <c r="D4154">
+        <v>3667.6786</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:4">
+      <c r="A4155" s="3">
+        <v>43516</v>
+      </c>
+      <c r="B4155">
+        <v>14.83430004119873</v>
+      </c>
+      <c r="C4155">
+        <v>3.618599891662598</v>
+      </c>
+      <c r="D4155">
+        <v>3677.8153</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:4">
+      <c r="A4156" s="3">
+        <v>43517</v>
+      </c>
+      <c r="B4156">
+        <v>14.88640022277832</v>
+      </c>
+      <c r="C4156">
+        <v>3.624200105667114</v>
+      </c>
+      <c r="D4156">
+        <v>3668.3837</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:4">
+      <c r="A4157" s="3">
+        <v>43518</v>
+      </c>
+      <c r="B4157">
+        <v>15.23690032958984</v>
+      </c>
+      <c r="C4157">
+        <v>3.627099990844727</v>
+      </c>
+      <c r="D4157">
+        <v>3751.6944</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:4">
+      <c r="A4158" s="3">
+        <v>43521</v>
+      </c>
+      <c r="B4158">
+        <v>16.15979957580566</v>
+      </c>
+      <c r="C4158">
+        <v>3.654999971389771</v>
+      </c>
+      <c r="D4158">
+        <v>3962.5882</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:4">
+      <c r="A4159" s="3">
+        <v>43522</v>
+      </c>
+      <c r="B4159">
+        <v>16.05719947814941</v>
+      </c>
+      <c r="C4159">
+        <v>3.68149995803833</v>
+      </c>
+      <c r="D4159">
+        <v>3936.8848</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:4">
+      <c r="A4160" s="3">
+        <v>43523</v>
+      </c>
+      <c r="B4160">
+        <v>16.16329956054688</v>
+      </c>
+      <c r="C4160">
+        <v>3.674000024795532</v>
+      </c>
+      <c r="D4160">
+        <v>3929.2381</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:4">
+      <c r="A4161" s="3">
+        <v>43524</v>
+      </c>
+      <c r="B4161">
+        <v>16.44510078430176</v>
+      </c>
+      <c r="C4161">
+        <v>3.680399894714355</v>
+      </c>
+      <c r="D4161">
+        <v>3928.2468</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:4">
+      <c r="A4162" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B4162">
+        <v>16.72949981689453</v>
+      </c>
+      <c r="C4162">
+        <v>3.695899963378906</v>
+      </c>
+      <c r="D4162">
+        <v>3988.7126</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:4">
+      <c r="A4163" s="3">
+        <v>43528</v>
+      </c>
+      <c r="B4163">
+        <v>16.97470092773438</v>
+      </c>
+      <c r="C4163">
+        <v>3.707600116729736</v>
+      </c>
+      <c r="D4163">
+        <v>4052.0983</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:4">
+      <c r="A4164" s="3">
+        <v>43529</v>
+      </c>
+      <c r="B4164">
+        <v>17.18939971923828</v>
+      </c>
+      <c r="C4164">
+        <v>3.718899965286255</v>
+      </c>
+      <c r="D4164">
+        <v>4118.7246</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:4">
+      <c r="A4165" s="3">
+        <v>43530</v>
+      </c>
+      <c r="B4165">
+        <v>17.43869972229004</v>
+      </c>
+      <c r="C4165">
+        <v>3.723700046539307</v>
+      </c>
+      <c r="D4165">
+        <v>4180.0182</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:4">
+      <c r="A4166" s="3">
+        <v>43531</v>
+      </c>
+      <c r="B4166">
+        <v>17.46549987792969</v>
+      </c>
+      <c r="C4166">
+        <v>3.705600023269653</v>
+      </c>
+      <c r="D4166">
+        <v>4191.7531</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:4">
+      <c r="A4167" s="3">
+        <v>43532</v>
+      </c>
+      <c r="B4167">
+        <v>16.73600006103516</v>
+      </c>
+      <c r="C4167">
+        <v>3.692800045013428</v>
+      </c>
+      <c r="D4167">
+        <v>4021.7682</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:4">
+      <c r="A4168" s="3">
+        <v>43535</v>
+      </c>
+      <c r="B4168">
+        <v>17.13949966430664</v>
+      </c>
+      <c r="C4168">
+        <v>3.693900108337402</v>
+      </c>
+      <c r="D4168">
+        <v>4140.5576</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:4">
+      <c r="A4169" s="3">
+        <v>43536</v>
+      </c>
+      <c r="B4169">
+        <v>17.35860061645508</v>
+      </c>
+      <c r="C4169">
+        <v>3.701200008392334</v>
+      </c>
+      <c r="D4169">
+        <v>4198.2511</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:4">
+      <c r="A4170" s="3">
+        <v>43537</v>
+      </c>
+      <c r="B4170">
+        <v>17.07909965515137</v>
+      </c>
+      <c r="C4170">
+        <v>3.704999923706055</v>
+      </c>
+      <c r="D4170">
+        <v>4133.0621</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:4">
+      <c r="A4171" s="3">
+        <v>43538</v>
+      </c>
+      <c r="B4171">
+        <v>16.82220077514648</v>
+      </c>
+      <c r="C4171">
+        <v>3.714499950408936</v>
+      </c>
+      <c r="D4171">
+        <v>4060.255</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:4">
+      <c r="A4172" s="3">
+        <v>43539</v>
+      </c>
+      <c r="B4172">
+        <v>17.02890014648438</v>
+      </c>
+      <c r="C4172">
+        <v>3.713799953460693</v>
+      </c>
+      <c r="D4172">
+        <v>4114.275</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:4">
+      <c r="A4173" s="3">
+        <v>43542</v>
+      </c>
+      <c r="B4173">
+        <v>17.45890045166016</v>
+      </c>
+      <c r="C4173">
+        <v>3.717999935150146</v>
+      </c>
+      <c r="D4173">
+        <v>4222.9233</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:4">
+      <c r="A4174" s="3">
+        <v>43543</v>
+      </c>
+      <c r="B4174">
+        <v>17.45750045776367</v>
+      </c>
+      <c r="C4174">
+        <v>3.720200061798096</v>
+      </c>
+      <c r="D4174">
+        <v>4221.8907</v>
       </c>
     </row>
   </sheetData>
